--- a/travianCalculator.xlsx
+++ b/travianCalculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fontos&amp;Archiv\Travian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git repositories\travianScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,367 +1305,376 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E2" s="7">
         <f>ROUNDDOWN((HOUR(K2)*3600+MINUTE(K2)*60)/B2,0)</f>
-        <v>1392</v>
+        <v>649</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:I3" si="0">$E2*A$14</f>
-        <v>139200</v>
+        <f t="shared" ref="F2" si="0">$E2*A$14</f>
+        <v>64900</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" si="0"/>
-        <v>180960</v>
+        <f t="shared" ref="G2" si="1">$E2*B$14</f>
+        <v>84370</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" si="0"/>
-        <v>222720</v>
+        <f t="shared" ref="H2" si="2">$E2*C$14</f>
+        <v>103840</v>
       </c>
       <c r="I2" s="7">
-        <f t="shared" si="0"/>
-        <v>97440</v>
+        <f t="shared" ref="I2" si="3">$E2*D$14</f>
+        <v>45430</v>
       </c>
       <c r="J2" s="8">
         <f>SUM(E2:I2)</f>
-        <v>641712</v>
+        <v>299189</v>
       </c>
       <c r="K2" s="6">
         <f>IF($D2&lt;$C2,1-$C2+$D2,$D2-$C2)</f>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="7">
         <f>ROUNDDOWN((HOUR(K3)*3600+MINUTE(K3)*60)/B3,0)</f>
-        <v>1392</v>
+        <v>649</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>139200</v>
+        <f t="shared" ref="F3:F8" si="4">$E3*A$14</f>
+        <v>64900</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="0"/>
-        <v>180960</v>
+        <f t="shared" ref="G3:G8" si="5">$E3*B$14</f>
+        <v>84370</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="0"/>
-        <v>222720</v>
+        <f t="shared" ref="H3:H8" si="6">$E3*C$14</f>
+        <v>103840</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" si="0"/>
-        <v>97440</v>
+        <f t="shared" ref="I3:I8" si="7">$E3*D$14</f>
+        <v>45430</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:J10" si="1">SUM(E3:I3)</f>
-        <v>641712</v>
+        <f t="shared" ref="J3:J10" si="8">SUM(E3:I3)</f>
+        <v>299189</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K9" si="2">IF($D3&lt;$C3,1-$C3+$D3,$D3-$C3)</f>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K3:K9" si="9">IF($D3&lt;$C3,1-$C3+$D3,$D3-$C3)</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:E9" si="3">ROUNDDOWN((HOUR(K4)*3600+MINUTE(K4)*60)/B4,0)</f>
-        <v>1541</v>
+        <f t="shared" ref="E4" si="10">ROUNDDOWN((HOUR(K4)*3600+MINUTE(K4)*60)/B4,0)</f>
+        <v>649</v>
       </c>
       <c r="F4" s="7">
-        <f>$E4*A$16</f>
-        <v>184920</v>
+        <f t="shared" si="4"/>
+        <v>64900</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:I4" si="4">$E4*B$16</f>
-        <v>154100</v>
+        <f t="shared" si="5"/>
+        <v>84370</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="4"/>
-        <v>231150</v>
+        <f t="shared" si="6"/>
+        <v>103840</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" si="4"/>
-        <v>46230</v>
+        <f t="shared" si="7"/>
+        <v>45430</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
-        <v>617941</v>
+        <f t="shared" si="8"/>
+        <v>299189</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E8" si="5">ROUNDDOWN((HOUR(K5)*3600+MINUTE(K5)*60)/B5,0)</f>
-        <v>1392</v>
+        <f t="shared" ref="E5:E9" si="11">ROUNDDOWN((HOUR(K5)*3600+MINUTE(K5)*60)/B5,0)</f>
+        <v>649</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F8" si="6">$E5*A$14</f>
-        <v>139200</v>
+        <f t="shared" si="4"/>
+        <v>64900</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G8" si="7">$E5*B$14</f>
-        <v>180960</v>
+        <f t="shared" si="5"/>
+        <v>84370</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H8" si="8">$E5*C$14</f>
-        <v>222720</v>
+        <f t="shared" si="6"/>
+        <v>103840</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5:I8" si="9">$E5*D$14</f>
-        <v>97440</v>
+        <f t="shared" si="7"/>
+        <v>45430</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:J8" si="10">SUM(E5:I5)</f>
-        <v>641712</v>
+        <f t="shared" ref="J5:J8" si="12">SUM(E5:I5)</f>
+        <v>299189</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" si="11"/>
+        <v>649</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="4"/>
+        <v>64900</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="5"/>
-        <v>1541</v>
-      </c>
-      <c r="F6" s="7">
-        <f>$E6*A$16</f>
-        <v>184920</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" ref="G6:G7" si="11">$E6*B$16</f>
-        <v>154100</v>
+        <v>84370</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H7" si="12">$E6*C$16</f>
-        <v>231150</v>
+        <f t="shared" si="6"/>
+        <v>103840</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" ref="I6:I7" si="13">$E6*D$16</f>
-        <v>46230</v>
+        <f t="shared" si="7"/>
+        <v>45430</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="10"/>
-        <v>617941</v>
+        <f t="shared" si="12"/>
+        <v>299189</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="11"/>
+        <v>649</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="4"/>
+        <v>64900</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="5"/>
-        <v>1541</v>
-      </c>
-      <c r="F7" s="7">
-        <f>$E7*A$16</f>
-        <v>184920</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="11"/>
-        <v>154100</v>
+        <v>84370</v>
       </c>
       <c r="H7" s="7">
+        <f t="shared" si="6"/>
+        <v>103840</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="7"/>
+        <v>45430</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="12"/>
-        <v>231150</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="13"/>
-        <v>46230</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="10"/>
-        <v>617941</v>
+        <v>299189</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q7">
+        <v>-160000</v>
+      </c>
+      <c r="R7">
+        <v>320000</v>
+      </c>
+      <c r="S7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="11"/>
+        <v>649</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="4"/>
+        <v>64900</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="5"/>
-        <v>1392</v>
-      </c>
-      <c r="F8" s="7">
+        <v>84370</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="6"/>
-        <v>139200</v>
-      </c>
-      <c r="G8" s="7">
+        <v>103840</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="7"/>
-        <v>180960</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="8"/>
-        <v>222720</v>
-      </c>
-      <c r="I8" s="7">
+        <v>45430</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="12"/>
+        <v>299189</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="9"/>
-        <v>97440</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="10"/>
-        <v>641712</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="3"/>
-        <v>1392</v>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="11"/>
+        <v>649</v>
       </c>
       <c r="F9" s="10">
         <f>$E9*A$14</f>
-        <v>139200</v>
+        <v>64900</v>
       </c>
       <c r="G9" s="10">
         <f>$E9*B$14</f>
-        <v>180960</v>
+        <v>84370</v>
       </c>
       <c r="H9" s="10">
         <f>$E9*C$14</f>
-        <v>222720</v>
+        <v>103840</v>
       </c>
       <c r="I9" s="10">
         <f>$E9*D$14</f>
-        <v>97440</v>
+        <v>45430</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="1"/>
-        <v>641712</v>
+        <f t="shared" si="8"/>
+        <v>299189</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E10" s="11"/>
       <c r="F10" s="12">
         <f>SUM(F2:F9)</f>
-        <v>1250760</v>
+        <v>519200</v>
       </c>
       <c r="G10" s="12">
         <f>SUM(G2:G9)</f>
-        <v>1367100</v>
+        <v>674960</v>
       </c>
       <c r="H10" s="12">
         <f>SUM(H2:H9)</f>
-        <v>1807050</v>
+        <v>830720</v>
       </c>
       <c r="I10" s="12">
         <f>SUM(I2:I9)</f>
-        <v>625890</v>
+        <v>363440</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" si="1"/>
-        <v>5050800</v>
+        <f t="shared" si="8"/>
+        <v>2388320</v>
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1674,50 +1683,50 @@
       </c>
       <c r="F11" s="5">
         <f>(F10-F24)/F22</f>
-        <v>37.647412936820878</v>
+        <v>15.627727778948319</v>
       </c>
       <c r="G11" s="5">
         <f>(G10-G24)/G22</f>
-        <v>30.411086888819682</v>
+        <v>15.01445922498554</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11:I11" si="14">(H10-H24)/H22</f>
-        <v>61.468467242669568</v>
+        <f t="shared" ref="H11:I11" si="13">(H10-H24)/H22</f>
+        <v>28.257704605755492</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="14"/>
-        <v>38.542397930907079</v>
+        <f t="shared" si="13"/>
+        <v>22.380688466038549</v>
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="E12" t="s">
         <v>45</v>
       </c>
       <c r="F12">
         <f>F10/24</f>
-        <v>52115</v>
+        <v>21633.333333333332</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:I12" si="15">G10/24</f>
-        <v>56962.5</v>
+        <f t="shared" ref="G12:I12" si="14">G10/24</f>
+        <v>28123.333333333332</v>
       </c>
       <c r="H12">
-        <f t="shared" si="15"/>
-        <v>75293.75</v>
+        <f t="shared" si="14"/>
+        <v>34613.333333333336</v>
       </c>
       <c r="I12">
-        <f t="shared" si="15"/>
-        <v>26078.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>15143.333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>100</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>9551</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>120</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>-7908</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J22" si="16">SUM(F16:I16)</f>
+        <f t="shared" ref="J16:J22" si="15">SUM(F16:I16)</f>
         <v>16359</v>
       </c>
     </row>
@@ -1826,7 +1835,7 @@
         <v>-7941</v>
       </c>
       <c r="J17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9122</v>
       </c>
       <c r="N17" t="s">
@@ -1836,7 +1845,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>(3600/B2+3600/B3+3600/B4+3600/B5+3600/B6+3600/B7+3600/B8+3600/B9)*24</f>
-        <v>11596.313364055299</v>
+        <v>11331.147540983606</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1854,7 +1863,7 @@
         <v>10205</v>
       </c>
       <c r="J18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>25955</v>
       </c>
     </row>
@@ -1875,7 +1884,7 @@
         <v>8790</v>
       </c>
       <c r="J19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>22283</v>
       </c>
       <c r="O19" t="s">
@@ -1911,7 +1920,7 @@
         <v>8890</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="17">SUM(F20:I20)</f>
+        <f t="shared" ref="J20" si="16">SUM(F20:I20)</f>
         <v>22934</v>
       </c>
     </row>
@@ -1969,7 +1978,7 @@
         <v>16239</v>
       </c>
       <c r="J22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>123814</v>
       </c>
       <c r="O22" t="s">
@@ -2028,15 +2037,15 @@
         <v>54193</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:S28" si="18">Q19-SUM(Q21:Q27)</f>
+        <f t="shared" ref="Q28:S28" si="17">Q19-SUM(Q21:Q27)</f>
         <v>47434</v>
       </c>
       <c r="R28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>27456</v>
       </c>
       <c r="S28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-30135</v>
       </c>
     </row>
@@ -3225,7 +3234,7 @@
       </c>
       <c r="B19" s="44">
         <f ca="1">NOW()+A19/A13*3600/86400</f>
-        <v>43213.824454232948</v>
+        <v>43234.088202033876</v>
       </c>
       <c r="F19">
         <f>SUM(F10:F18)</f>
@@ -3748,7 +3757,7 @@
       </c>
       <c r="B3" s="42">
         <f ca="1">NOW()</f>
-        <v>43209.598897453703</v>
+        <v>43229.86264525463</v>
       </c>
       <c r="C3" s="43">
         <v>42863.208333333336</v>
@@ -3791,7 +3800,7 @@
       </c>
       <c r="O3" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>3861221.5866555227</v>
+        <v>4082015.3826944274</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -3803,7 +3812,7 @@
       </c>
       <c r="B4" s="42">
         <f t="shared" ref="B4:B5" ca="1" si="1">NOW()</f>
-        <v>43209.598897453703</v>
+        <v>43229.86264525463</v>
       </c>
       <c r="C4" s="43">
         <v>42863.208333333336</v>
@@ -3834,19 +3843,19 @@
       </c>
       <c r="L4" s="27">
         <f t="shared" ref="L4:L5" ca="1" si="2">($C4-$B4)*86400/3600*H4+D4</f>
-        <v>-51009560.034621775</v>
+        <v>-53993680.590777546</v>
       </c>
       <c r="M4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>-74469355.161366016</v>
+        <v>-78825898.828582987</v>
       </c>
       <c r="N4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>-64159881.973143883</v>
+        <v>-67913376.505805269</v>
       </c>
       <c r="O4" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>68272981.645349398</v>
+        <v>72260400.882624686</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
@@ -3858,7 +3867,7 @@
       </c>
       <c r="B5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>43209.598897453703</v>
+        <v>43229.86264525463</v>
       </c>
       <c r="C5" s="43">
         <v>42863.208333333336</v>
@@ -3889,19 +3898,19 @@
       </c>
       <c r="L5" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>-32729684.996144157</v>
+        <v>-34644852.328305408</v>
       </c>
       <c r="M5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>-65467324.618749425</v>
+        <v>-69297172.953124702</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>-43632011.079166286</v>
+        <v>-46185243.302083135</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>73426020.49238269</v>
+        <v>77713991.63704133</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -3982,7 +3991,7 @@
       </c>
       <c r="H2" s="18">
         <f ca="1">NOW()</f>
-        <v>43209.598897453703</v>
+        <v>43229.86264525463</v>
       </c>
       <c r="I2" s="4">
         <v>2050</v>
@@ -4047,7 +4056,7 @@
     <row r="3" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="18">
         <f ca="1">H2+$G$2/86400</f>
-        <v>43209.602369675922</v>
+        <v>43229.866117476849</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3" si="1">IF($M2=1,I2-O2,ROUND(I2+B$2/3600*$G$2,0))</f>
@@ -4133,7 +4142,7 @@
     <row r="4" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="18">
         <f t="shared" ref="H4:H67" ca="1" si="5">H3+$G$2/86400</f>
-        <v>43209.605841898141</v>
+        <v>43229.869589699068</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I14" si="6">IF($M3=1,I3-O3,ROUND(I3+B$2/3600*$G$2,0))</f>
@@ -4219,7 +4228,7 @@
     <row r="5" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.60931412036</v>
+        <v>43229.873061921287</v>
       </c>
       <c r="I5">
         <f t="shared" si="6"/>
@@ -4305,7 +4314,7 @@
     <row r="6" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.612786342579</v>
+        <v>43229.876534143506</v>
       </c>
       <c r="I6">
         <f t="shared" si="6"/>
@@ -4391,7 +4400,7 @@
     <row r="7" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.616258564798</v>
+        <v>43229.880006365725</v>
       </c>
       <c r="I7">
         <f t="shared" si="6"/>
@@ -4477,7 +4486,7 @@
     <row r="8" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H8" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.619730787017</v>
+        <v>43229.883478587944</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
@@ -4563,7 +4572,7 @@
     <row r="9" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.623203009236</v>
+        <v>43229.886950810163</v>
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
@@ -4649,7 +4658,7 @@
     <row r="10" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.626675231455</v>
+        <v>43229.890423032382</v>
       </c>
       <c r="I10">
         <f t="shared" si="6"/>
@@ -4735,7 +4744,7 @@
     <row r="11" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.630147453674</v>
+        <v>43229.893895254601</v>
       </c>
       <c r="I11">
         <f t="shared" si="6"/>
@@ -4821,7 +4830,7 @@
     <row r="12" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.633619675893</v>
+        <v>43229.89736747682</v>
       </c>
       <c r="I12">
         <f t="shared" si="6"/>
@@ -4908,7 +4917,7 @@
       <c r="E13" s="5"/>
       <c r="H13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.637091898112</v>
+        <v>43229.900839699039</v>
       </c>
       <c r="I13">
         <f t="shared" si="6"/>
@@ -4994,7 +5003,7 @@
     <row r="14" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.640564120331</v>
+        <v>43229.904311921258</v>
       </c>
       <c r="I14">
         <f t="shared" si="6"/>
@@ -5080,7 +5089,7 @@
     <row r="15" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.64403634255</v>
+        <v>43229.907784143477</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:I78" si="10">IF($M14=1,I14-O14,ROUND(I14+B$2/3600*$G$2,0))</f>
@@ -5166,7 +5175,7 @@
     <row r="16" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.647508564769</v>
+        <v>43229.911256365696</v>
       </c>
       <c r="I16">
         <f t="shared" si="10"/>
@@ -5252,7 +5261,7 @@
     <row r="17" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.650980786988</v>
+        <v>43229.914728587915</v>
       </c>
       <c r="I17">
         <f t="shared" si="10"/>
@@ -5338,7 +5347,7 @@
     <row r="18" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.654453009207</v>
+        <v>43229.918200810134</v>
       </c>
       <c r="I18">
         <f t="shared" si="10"/>
@@ -5424,7 +5433,7 @@
     <row r="19" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.657925231426</v>
+        <v>43229.921673032353</v>
       </c>
       <c r="I19">
         <f t="shared" si="10"/>
@@ -5510,7 +5519,7 @@
     <row r="20" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.661397453645</v>
+        <v>43229.925145254572</v>
       </c>
       <c r="I20">
         <f t="shared" si="10"/>
@@ -5596,7 +5605,7 @@
     <row r="21" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.664869675864</v>
+        <v>43229.928617476791</v>
       </c>
       <c r="I21">
         <f t="shared" si="10"/>
@@ -5670,7 +5679,7 @@
     <row r="22" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.668341898083</v>
+        <v>43229.93208969901</v>
       </c>
       <c r="I22">
         <f t="shared" si="10"/>
@@ -5720,7 +5729,7 @@
     <row r="23" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.671814120302</v>
+        <v>43229.935561921229</v>
       </c>
       <c r="I23">
         <f t="shared" si="10"/>
@@ -5770,7 +5779,7 @@
     <row r="24" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H24" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.675286342521</v>
+        <v>43229.939034143448</v>
       </c>
       <c r="I24">
         <f t="shared" si="10"/>
@@ -5820,7 +5829,7 @@
     <row r="25" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.67875856474</v>
+        <v>43229.942506365667</v>
       </c>
       <c r="I25">
         <f t="shared" si="10"/>
@@ -5870,7 +5879,7 @@
     <row r="26" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.682230786959</v>
+        <v>43229.945978587886</v>
       </c>
       <c r="I26">
         <f t="shared" si="10"/>
@@ -5920,7 +5929,7 @@
     <row r="27" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.685703009178</v>
+        <v>43229.949450810105</v>
       </c>
       <c r="I27">
         <f t="shared" si="10"/>
@@ -5970,7 +5979,7 @@
     <row r="28" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H28" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.689175231397</v>
+        <v>43229.952923032324</v>
       </c>
       <c r="I28">
         <f t="shared" si="10"/>
@@ -6020,7 +6029,7 @@
     <row r="29" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.692647453616</v>
+        <v>43229.956395254543</v>
       </c>
       <c r="I29">
         <f t="shared" si="10"/>
@@ -6070,7 +6079,7 @@
     <row r="30" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.696119675835</v>
+        <v>43229.959867476762</v>
       </c>
       <c r="I30">
         <f t="shared" si="10"/>
@@ -6120,7 +6129,7 @@
     <row r="31" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H31" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.699591898054</v>
+        <v>43229.963339698981</v>
       </c>
       <c r="I31">
         <f t="shared" si="10"/>
@@ -6170,7 +6179,7 @@
     <row r="32" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.703064120273</v>
+        <v>43229.9668119212</v>
       </c>
       <c r="I32">
         <f t="shared" si="10"/>
@@ -6220,7 +6229,7 @@
     <row r="33" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H33" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.706536342492</v>
+        <v>43229.970284143419</v>
       </c>
       <c r="I33">
         <f t="shared" si="10"/>
@@ -6270,7 +6279,7 @@
     <row r="34" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H34" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.710008564711</v>
+        <v>43229.973756365638</v>
       </c>
       <c r="I34">
         <f t="shared" si="10"/>
@@ -6320,7 +6329,7 @@
     <row r="35" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H35" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.71348078693</v>
+        <v>43229.977228587857</v>
       </c>
       <c r="I35">
         <f t="shared" si="10"/>
@@ -6370,7 +6379,7 @@
     <row r="36" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H36" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.716953009149</v>
+        <v>43229.980700810076</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
@@ -6420,7 +6429,7 @@
     <row r="37" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H37" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.720425231368</v>
+        <v>43229.984173032295</v>
       </c>
       <c r="I37">
         <f t="shared" si="10"/>
@@ -6470,7 +6479,7 @@
     <row r="38" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H38" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.723897453587</v>
+        <v>43229.987645254514</v>
       </c>
       <c r="I38">
         <f t="shared" si="10"/>
@@ -6520,7 +6529,7 @@
     <row r="39" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H39" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.727369675806</v>
+        <v>43229.991117476733</v>
       </c>
       <c r="I39">
         <f t="shared" si="10"/>
@@ -6570,7 +6579,7 @@
     <row r="40" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H40" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.730841898025</v>
+        <v>43229.994589698952</v>
       </c>
       <c r="I40">
         <f t="shared" si="10"/>
@@ -6620,7 +6629,7 @@
     <row r="41" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H41" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.734314120244</v>
+        <v>43229.998061921171</v>
       </c>
       <c r="I41">
         <f t="shared" si="10"/>
@@ -6670,7 +6679,7 @@
     <row r="42" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H42" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.737786342463</v>
+        <v>43230.00153414339</v>
       </c>
       <c r="I42">
         <f t="shared" si="10"/>
@@ -6720,7 +6729,7 @@
     <row r="43" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H43" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.741258564682</v>
+        <v>43230.005006365609</v>
       </c>
       <c r="I43">
         <f t="shared" si="10"/>
@@ -6770,7 +6779,7 @@
     <row r="44" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.744730786901</v>
+        <v>43230.008478587828</v>
       </c>
       <c r="I44">
         <f t="shared" si="10"/>
@@ -6820,7 +6829,7 @@
     <row r="45" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.74820300912</v>
+        <v>43230.011950810047</v>
       </c>
       <c r="I45">
         <f t="shared" si="10"/>
@@ -6870,7 +6879,7 @@
     <row r="46" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.751675231339</v>
+        <v>43230.015423032266</v>
       </c>
       <c r="I46">
         <f t="shared" si="10"/>
@@ -6920,7 +6929,7 @@
     <row r="47" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H47" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.755147453558</v>
+        <v>43230.018895254485</v>
       </c>
       <c r="I47">
         <f t="shared" si="10"/>
@@ -6970,7 +6979,7 @@
     <row r="48" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.758619675777</v>
+        <v>43230.022367476704</v>
       </c>
       <c r="I48">
         <f t="shared" si="10"/>
@@ -7020,7 +7029,7 @@
     <row r="49" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H49" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.762091897996</v>
+        <v>43230.025839698923</v>
       </c>
       <c r="I49">
         <f t="shared" si="10"/>
@@ -7070,7 +7079,7 @@
     <row r="50" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.765564120215</v>
+        <v>43230.029311921142</v>
       </c>
       <c r="I50">
         <f t="shared" si="10"/>
@@ -7120,7 +7129,7 @@
     <row r="51" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H51" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.769036342434</v>
+        <v>43230.032784143361</v>
       </c>
       <c r="I51">
         <f t="shared" si="10"/>
@@ -7170,7 +7179,7 @@
     <row r="52" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H52" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.772508564653</v>
+        <v>43230.03625636558</v>
       </c>
       <c r="I52">
         <f t="shared" si="10"/>
@@ -7220,7 +7229,7 @@
     <row r="53" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H53" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.775980786872</v>
+        <v>43230.039728587799</v>
       </c>
       <c r="I53">
         <f t="shared" si="10"/>
@@ -7270,7 +7279,7 @@
     <row r="54" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.779453009091</v>
+        <v>43230.043200810018</v>
       </c>
       <c r="I54">
         <f t="shared" si="10"/>
@@ -7320,7 +7329,7 @@
     <row r="55" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.782925231309</v>
+        <v>43230.046673032237</v>
       </c>
       <c r="I55">
         <f t="shared" si="10"/>
@@ -7370,7 +7379,7 @@
     <row r="56" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.786397453528</v>
+        <v>43230.050145254456</v>
       </c>
       <c r="I56">
         <f t="shared" si="10"/>
@@ -7420,7 +7429,7 @@
     <row r="57" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H57" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.789869675747</v>
+        <v>43230.053617476675</v>
       </c>
       <c r="I57">
         <f t="shared" si="10"/>
@@ -7470,7 +7479,7 @@
     <row r="58" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H58" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.793341897966</v>
+        <v>43230.057089698894</v>
       </c>
       <c r="I58">
         <f t="shared" si="10"/>
@@ -7520,7 +7529,7 @@
     <row r="59" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H59" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.796814120185</v>
+        <v>43230.060561921113</v>
       </c>
       <c r="I59">
         <f t="shared" si="10"/>
@@ -7570,7 +7579,7 @@
     <row r="60" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H60" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.800286342404</v>
+        <v>43230.064034143332</v>
       </c>
       <c r="I60">
         <f t="shared" si="10"/>
@@ -7620,7 +7629,7 @@
     <row r="61" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.803758564623</v>
+        <v>43230.067506365551</v>
       </c>
       <c r="I61">
         <f t="shared" si="10"/>
@@ -7670,7 +7679,7 @@
     <row r="62" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H62" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.807230786842</v>
+        <v>43230.07097858777</v>
       </c>
       <c r="I62">
         <f t="shared" si="10"/>
@@ -7720,7 +7729,7 @@
     <row r="63" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.810703009061</v>
+        <v>43230.074450809989</v>
       </c>
       <c r="I63">
         <f t="shared" si="10"/>
@@ -7770,7 +7779,7 @@
     <row r="64" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H64" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.81417523128</v>
+        <v>43230.077923032208</v>
       </c>
       <c r="I64">
         <f t="shared" si="10"/>
@@ -7820,7 +7829,7 @@
     <row r="65" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H65" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.817647453499</v>
+        <v>43230.081395254427</v>
       </c>
       <c r="I65">
         <f t="shared" si="10"/>
@@ -7870,7 +7879,7 @@
     <row r="66" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H66" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.821119675718</v>
+        <v>43230.084867476646</v>
       </c>
       <c r="I66">
         <f t="shared" si="10"/>
@@ -7920,7 +7929,7 @@
     <row r="67" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H67" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>43209.824591897937</v>
+        <v>43230.088339698865</v>
       </c>
       <c r="I67">
         <f t="shared" si="10"/>
@@ -7970,7 +7979,7 @@
     <row r="68" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H68" s="18">
         <f t="shared" ref="H68:H131" ca="1" si="15">H67+$G$2/86400</f>
-        <v>43209.828064120156</v>
+        <v>43230.091811921084</v>
       </c>
       <c r="I68">
         <f t="shared" si="10"/>
@@ -8020,7 +8029,7 @@
     <row r="69" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H69" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.831536342375</v>
+        <v>43230.095284143303</v>
       </c>
       <c r="I69">
         <f t="shared" si="10"/>
@@ -8070,7 +8079,7 @@
     <row r="70" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H70" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.835008564594</v>
+        <v>43230.098756365522</v>
       </c>
       <c r="I70">
         <f t="shared" si="10"/>
@@ -8120,7 +8129,7 @@
     <row r="71" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H71" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.838480786813</v>
+        <v>43230.102228587741</v>
       </c>
       <c r="I71">
         <f t="shared" si="10"/>
@@ -8170,7 +8179,7 @@
     <row r="72" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H72" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.841953009032</v>
+        <v>43230.10570080996</v>
       </c>
       <c r="I72">
         <f t="shared" si="10"/>
@@ -8220,7 +8229,7 @@
     <row r="73" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H73" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.845425231251</v>
+        <v>43230.109173032179</v>
       </c>
       <c r="I73">
         <f t="shared" si="10"/>
@@ -8270,7 +8279,7 @@
     <row r="74" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H74" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.84889745347</v>
+        <v>43230.112645254398</v>
       </c>
       <c r="I74">
         <f t="shared" si="10"/>
@@ -8320,7 +8329,7 @@
     <row r="75" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H75" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.852369675689</v>
+        <v>43230.116117476617</v>
       </c>
       <c r="I75">
         <f t="shared" si="10"/>
@@ -8370,7 +8379,7 @@
     <row r="76" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H76" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.855841897908</v>
+        <v>43230.119589698836</v>
       </c>
       <c r="I76">
         <f t="shared" si="10"/>
@@ -8420,7 +8429,7 @@
     <row r="77" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H77" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.859314120127</v>
+        <v>43230.123061921055</v>
       </c>
       <c r="I77">
         <f t="shared" si="10"/>
@@ -8470,7 +8479,7 @@
     <row r="78" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H78" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.862786342346</v>
+        <v>43230.126534143274</v>
       </c>
       <c r="I78">
         <f t="shared" si="10"/>
@@ -8520,7 +8529,7 @@
     <row r="79" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H79" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.866258564565</v>
+        <v>43230.130006365493</v>
       </c>
       <c r="I79">
         <f t="shared" ref="I79:I142" si="16">IF($M78=1,I78-O78,ROUND(I78+B$2/3600*$G$2,0))</f>
@@ -8570,7 +8579,7 @@
     <row r="80" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H80" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.869730786784</v>
+        <v>43230.133478587712</v>
       </c>
       <c r="I80">
         <f t="shared" si="16"/>
@@ -8620,7 +8629,7 @@
     <row r="81" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H81" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.873203009003</v>
+        <v>43230.136950809931</v>
       </c>
       <c r="I81">
         <f t="shared" si="16"/>
@@ -8670,7 +8679,7 @@
     <row r="82" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H82" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.876675231222</v>
+        <v>43230.14042303215</v>
       </c>
       <c r="I82">
         <f t="shared" si="16"/>
@@ -8720,7 +8729,7 @@
     <row r="83" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H83" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.880147453441</v>
+        <v>43230.143895254369</v>
       </c>
       <c r="I83">
         <f t="shared" si="16"/>
@@ -8770,7 +8779,7 @@
     <row r="84" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H84" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.88361967566</v>
+        <v>43230.147367476588</v>
       </c>
       <c r="I84">
         <f t="shared" si="16"/>
@@ -8820,7 +8829,7 @@
     <row r="85" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H85" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.887091897879</v>
+        <v>43230.150839698807</v>
       </c>
       <c r="I85">
         <f t="shared" si="16"/>
@@ -8870,7 +8879,7 @@
     <row r="86" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H86" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.890564120098</v>
+        <v>43230.154311921026</v>
       </c>
       <c r="I86">
         <f t="shared" si="16"/>
@@ -8920,7 +8929,7 @@
     <row r="87" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H87" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.894036342317</v>
+        <v>43230.157784143244</v>
       </c>
       <c r="I87">
         <f t="shared" si="16"/>
@@ -8970,7 +8979,7 @@
     <row r="88" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H88" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.897508564536</v>
+        <v>43230.161256365463</v>
       </c>
       <c r="I88">
         <f t="shared" si="16"/>
@@ -9020,7 +9029,7 @@
     <row r="89" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H89" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.900980786755</v>
+        <v>43230.164728587682</v>
       </c>
       <c r="I89">
         <f t="shared" si="16"/>
@@ -9070,7 +9079,7 @@
     <row r="90" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H90" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.904453008974</v>
+        <v>43230.168200809901</v>
       </c>
       <c r="I90">
         <f t="shared" si="16"/>
@@ -9120,7 +9129,7 @@
     <row r="91" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H91" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.907925231193</v>
+        <v>43230.17167303212</v>
       </c>
       <c r="I91">
         <f t="shared" si="16"/>
@@ -9170,7 +9179,7 @@
     <row r="92" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H92" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.911397453412</v>
+        <v>43230.175145254339</v>
       </c>
       <c r="I92">
         <f t="shared" si="16"/>
@@ -9220,7 +9229,7 @@
     <row r="93" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H93" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.914869675631</v>
+        <v>43230.178617476558</v>
       </c>
       <c r="I93">
         <f t="shared" si="16"/>
@@ -9270,7 +9279,7 @@
     <row r="94" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H94" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.91834189785</v>
+        <v>43230.182089698777</v>
       </c>
       <c r="I94">
         <f t="shared" si="16"/>
@@ -9320,7 +9329,7 @@
     <row r="95" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H95" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.921814120069</v>
+        <v>43230.185561920996</v>
       </c>
       <c r="I95">
         <f t="shared" si="16"/>
@@ -9370,7 +9379,7 @@
     <row r="96" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H96" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.925286342288</v>
+        <v>43230.189034143215</v>
       </c>
       <c r="I96">
         <f t="shared" si="16"/>
@@ -9420,7 +9429,7 @@
     <row r="97" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H97" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.928758564507</v>
+        <v>43230.192506365434</v>
       </c>
       <c r="I97">
         <f t="shared" si="16"/>
@@ -9470,7 +9479,7 @@
     <row r="98" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H98" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.932230786726</v>
+        <v>43230.195978587653</v>
       </c>
       <c r="I98">
         <f t="shared" si="16"/>
@@ -9520,7 +9529,7 @@
     <row r="99" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H99" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.935703008945</v>
+        <v>43230.199450809872</v>
       </c>
       <c r="I99">
         <f t="shared" si="16"/>
@@ -9570,7 +9579,7 @@
     <row r="100" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H100" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.939175231164</v>
+        <v>43230.202923032091</v>
       </c>
       <c r="I100">
         <f t="shared" si="16"/>
@@ -9620,7 +9629,7 @@
     <row r="101" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H101" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.942647453383</v>
+        <v>43230.20639525431</v>
       </c>
       <c r="I101">
         <f t="shared" si="16"/>
@@ -9670,7 +9679,7 @@
     <row r="102" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H102" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.946119675602</v>
+        <v>43230.209867476529</v>
       </c>
       <c r="I102">
         <f t="shared" si="16"/>
@@ -9720,7 +9729,7 @@
     <row r="103" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H103" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.949591897821</v>
+        <v>43230.213339698748</v>
       </c>
       <c r="I103">
         <f t="shared" si="16"/>
@@ -9770,7 +9779,7 @@
     <row r="104" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H104" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.95306412004</v>
+        <v>43230.216811920967</v>
       </c>
       <c r="I104">
         <f t="shared" si="16"/>
@@ -9820,7 +9829,7 @@
     <row r="105" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H105" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.956536342259</v>
+        <v>43230.220284143186</v>
       </c>
       <c r="I105">
         <f t="shared" si="16"/>
@@ -9870,7 +9879,7 @@
     <row r="106" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H106" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.960008564478</v>
+        <v>43230.223756365405</v>
       </c>
       <c r="I106">
         <f t="shared" si="16"/>
@@ -9920,7 +9929,7 @@
     <row r="107" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H107" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.963480786697</v>
+        <v>43230.227228587624</v>
       </c>
       <c r="I107">
         <f t="shared" si="16"/>
@@ -9970,7 +9979,7 @@
     <row r="108" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H108" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.966953008916</v>
+        <v>43230.230700809843</v>
       </c>
       <c r="I108">
         <f t="shared" si="16"/>
@@ -10020,7 +10029,7 @@
     <row r="109" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H109" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.970425231135</v>
+        <v>43230.234173032062</v>
       </c>
       <c r="I109">
         <f t="shared" si="16"/>
@@ -10070,7 +10079,7 @@
     <row r="110" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H110" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.973897453354</v>
+        <v>43230.237645254281</v>
       </c>
       <c r="I110">
         <f t="shared" si="16"/>
@@ -10120,7 +10129,7 @@
     <row r="111" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H111" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.977369675573</v>
+        <v>43230.2411174765</v>
       </c>
       <c r="I111">
         <f t="shared" si="16"/>
@@ -10170,7 +10179,7 @@
     <row r="112" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H112" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.980841897792</v>
+        <v>43230.244589698719</v>
       </c>
       <c r="I112">
         <f t="shared" si="16"/>
@@ -10220,7 +10229,7 @@
     <row r="113" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H113" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.984314120011</v>
+        <v>43230.248061920938</v>
       </c>
       <c r="I113">
         <f t="shared" si="16"/>
@@ -10270,7 +10279,7 @@
     <row r="114" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H114" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.98778634223</v>
+        <v>43230.251534143157</v>
       </c>
       <c r="I114">
         <f t="shared" si="16"/>
@@ -10320,7 +10329,7 @@
     <row r="115" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H115" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.991258564449</v>
+        <v>43230.255006365376</v>
       </c>
       <c r="I115">
         <f t="shared" si="16"/>
@@ -10370,7 +10379,7 @@
     <row r="116" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H116" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.994730786668</v>
+        <v>43230.258478587595</v>
       </c>
       <c r="I116">
         <f t="shared" si="16"/>
@@ -10420,7 +10429,7 @@
     <row r="117" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H117" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43209.998203008887</v>
+        <v>43230.261950809814</v>
       </c>
       <c r="I117">
         <f t="shared" si="16"/>
@@ -10470,7 +10479,7 @@
     <row r="118" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H118" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.001675231106</v>
+        <v>43230.265423032033</v>
       </c>
       <c r="I118">
         <f t="shared" si="16"/>
@@ -10520,7 +10529,7 @@
     <row r="119" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H119" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.005147453325</v>
+        <v>43230.268895254252</v>
       </c>
       <c r="I119">
         <f t="shared" si="16"/>
@@ -10570,7 +10579,7 @@
     <row r="120" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H120" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.008619675544</v>
+        <v>43230.272367476471</v>
       </c>
       <c r="I120">
         <f t="shared" si="16"/>
@@ -10620,7 +10629,7 @@
     <row r="121" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H121" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.012091897763</v>
+        <v>43230.27583969869</v>
       </c>
       <c r="I121">
         <f t="shared" si="16"/>
@@ -10670,7 +10679,7 @@
     <row r="122" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H122" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.015564119982</v>
+        <v>43230.279311920909</v>
       </c>
       <c r="I122">
         <f t="shared" si="16"/>
@@ -10720,7 +10729,7 @@
     <row r="123" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H123" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.019036342201</v>
+        <v>43230.282784143128</v>
       </c>
       <c r="I123">
         <f t="shared" si="16"/>
@@ -10770,7 +10779,7 @@
     <row r="124" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H124" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.02250856442</v>
+        <v>43230.286256365347</v>
       </c>
       <c r="I124">
         <f t="shared" si="16"/>
@@ -10820,7 +10829,7 @@
     <row r="125" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H125" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.025980786639</v>
+        <v>43230.289728587566</v>
       </c>
       <c r="I125">
         <f t="shared" si="16"/>
@@ -10870,7 +10879,7 @@
     <row r="126" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H126" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.029453008858</v>
+        <v>43230.293200809785</v>
       </c>
       <c r="I126">
         <f t="shared" si="16"/>
@@ -10920,7 +10929,7 @@
     <row r="127" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H127" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.032925231077</v>
+        <v>43230.296673032004</v>
       </c>
       <c r="I127">
         <f t="shared" si="16"/>
@@ -10970,7 +10979,7 @@
     <row r="128" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H128" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.036397453296</v>
+        <v>43230.300145254223</v>
       </c>
       <c r="I128">
         <f t="shared" si="16"/>
@@ -11020,7 +11029,7 @@
     <row r="129" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H129" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.039869675515</v>
+        <v>43230.303617476442</v>
       </c>
       <c r="I129">
         <f t="shared" si="16"/>
@@ -11070,7 +11079,7 @@
     <row r="130" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H130" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.043341897734</v>
+        <v>43230.307089698661</v>
       </c>
       <c r="I130">
         <f t="shared" si="16"/>
@@ -11120,7 +11129,7 @@
     <row r="131" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H131" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>43210.046814119953</v>
+        <v>43230.31056192088</v>
       </c>
       <c r="I131">
         <f t="shared" si="16"/>
@@ -11170,7 +11179,7 @@
     <row r="132" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H132" s="18">
         <f t="shared" ref="H132:H195" ca="1" si="21">H131+$G$2/86400</f>
-        <v>43210.050286342172</v>
+        <v>43230.314034143099</v>
       </c>
       <c r="I132">
         <f t="shared" si="16"/>
@@ -11220,7 +11229,7 @@
     <row r="133" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H133" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.053758564391</v>
+        <v>43230.317506365318</v>
       </c>
       <c r="I133">
         <f t="shared" si="16"/>
@@ -11270,7 +11279,7 @@
     <row r="134" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H134" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.05723078661</v>
+        <v>43230.320978587537</v>
       </c>
       <c r="I134">
         <f t="shared" si="16"/>
@@ -11320,7 +11329,7 @@
     <row r="135" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H135" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.060703008829</v>
+        <v>43230.324450809756</v>
       </c>
       <c r="I135">
         <f t="shared" si="16"/>
@@ -11370,7 +11379,7 @@
     <row r="136" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H136" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.064175231048</v>
+        <v>43230.327923031975</v>
       </c>
       <c r="I136">
         <f t="shared" si="16"/>
@@ -11420,7 +11429,7 @@
     <row r="137" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H137" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.067647453267</v>
+        <v>43230.331395254194</v>
       </c>
       <c r="I137">
         <f t="shared" si="16"/>
@@ -11470,7 +11479,7 @@
     <row r="138" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H138" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.071119675486</v>
+        <v>43230.334867476413</v>
       </c>
       <c r="I138">
         <f t="shared" si="16"/>
@@ -11520,7 +11529,7 @@
     <row r="139" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H139" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.074591897705</v>
+        <v>43230.338339698632</v>
       </c>
       <c r="I139">
         <f t="shared" si="16"/>
@@ -11570,7 +11579,7 @@
     <row r="140" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H140" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.078064119924</v>
+        <v>43230.341811920851</v>
       </c>
       <c r="I140">
         <f t="shared" si="16"/>
@@ -11620,7 +11629,7 @@
     <row r="141" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H141" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.081536342142</v>
+        <v>43230.34528414307</v>
       </c>
       <c r="I141">
         <f t="shared" si="16"/>
@@ -11670,7 +11679,7 @@
     <row r="142" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H142" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.085008564361</v>
+        <v>43230.348756365289</v>
       </c>
       <c r="I142">
         <f t="shared" si="16"/>
@@ -11720,7 +11729,7 @@
     <row r="143" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H143" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.08848078658</v>
+        <v>43230.352228587508</v>
       </c>
       <c r="I143">
         <f t="shared" ref="I143:I206" si="22">IF($M142=1,I142-O142,ROUND(I142+B$2/3600*$G$2,0))</f>
@@ -11770,7 +11779,7 @@
     <row r="144" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H144" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.091953008799</v>
+        <v>43230.355700809727</v>
       </c>
       <c r="I144">
         <f t="shared" si="22"/>
@@ -11820,7 +11829,7 @@
     <row r="145" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H145" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.095425231018</v>
+        <v>43230.359173031946</v>
       </c>
       <c r="I145">
         <f t="shared" si="22"/>
@@ -11870,7 +11879,7 @@
     <row r="146" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H146" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.098897453237</v>
+        <v>43230.362645254165</v>
       </c>
       <c r="I146">
         <f t="shared" si="22"/>
@@ -11920,7 +11929,7 @@
     <row r="147" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H147" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.102369675456</v>
+        <v>43230.366117476384</v>
       </c>
       <c r="I147">
         <f t="shared" si="22"/>
@@ -11970,7 +11979,7 @@
     <row r="148" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H148" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.105841897675</v>
+        <v>43230.369589698603</v>
       </c>
       <c r="I148">
         <f t="shared" si="22"/>
@@ -12020,7 +12029,7 @@
     <row r="149" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H149" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.109314119894</v>
+        <v>43230.373061920822</v>
       </c>
       <c r="I149">
         <f t="shared" si="22"/>
@@ -12070,7 +12079,7 @@
     <row r="150" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H150" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.112786342113</v>
+        <v>43230.376534143041</v>
       </c>
       <c r="I150">
         <f t="shared" si="22"/>
@@ -12120,7 +12129,7 @@
     <row r="151" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H151" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.116258564332</v>
+        <v>43230.38000636526</v>
       </c>
       <c r="I151">
         <f t="shared" si="22"/>
@@ -12170,7 +12179,7 @@
     <row r="152" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H152" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.119730786551</v>
+        <v>43230.383478587479</v>
       </c>
       <c r="I152">
         <f t="shared" si="22"/>
@@ -12220,7 +12229,7 @@
     <row r="153" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H153" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.12320300877</v>
+        <v>43230.386950809698</v>
       </c>
       <c r="I153">
         <f t="shared" si="22"/>
@@ -12270,7 +12279,7 @@
     <row r="154" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H154" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.126675230989</v>
+        <v>43230.390423031917</v>
       </c>
       <c r="I154">
         <f t="shared" si="22"/>
@@ -12320,7 +12329,7 @@
     <row r="155" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H155" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.130147453208</v>
+        <v>43230.393895254136</v>
       </c>
       <c r="I155">
         <f t="shared" si="22"/>
@@ -12370,7 +12379,7 @@
     <row r="156" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H156" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.133619675427</v>
+        <v>43230.397367476355</v>
       </c>
       <c r="I156">
         <f t="shared" si="22"/>
@@ -12420,7 +12429,7 @@
     <row r="157" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H157" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.137091897646</v>
+        <v>43230.400839698574</v>
       </c>
       <c r="I157">
         <f t="shared" si="22"/>
@@ -12470,7 +12479,7 @@
     <row r="158" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H158" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.140564119865</v>
+        <v>43230.404311920793</v>
       </c>
       <c r="I158">
         <f t="shared" si="22"/>
@@ -12520,7 +12529,7 @@
     <row r="159" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H159" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.144036342084</v>
+        <v>43230.407784143012</v>
       </c>
       <c r="I159">
         <f t="shared" si="22"/>
@@ -12570,7 +12579,7 @@
     <row r="160" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H160" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.147508564303</v>
+        <v>43230.411256365231</v>
       </c>
       <c r="I160">
         <f t="shared" si="22"/>
@@ -12620,7 +12629,7 @@
     <row r="161" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H161" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.150980786522</v>
+        <v>43230.41472858745</v>
       </c>
       <c r="I161">
         <f t="shared" si="22"/>
@@ -12670,7 +12679,7 @@
     <row r="162" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H162" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.154453008741</v>
+        <v>43230.418200809669</v>
       </c>
       <c r="I162">
         <f t="shared" si="22"/>
@@ -12720,7 +12729,7 @@
     <row r="163" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H163" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.15792523096</v>
+        <v>43230.421673031888</v>
       </c>
       <c r="I163">
         <f t="shared" si="22"/>
@@ -12770,7 +12779,7 @@
     <row r="164" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H164" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.161397453179</v>
+        <v>43230.425145254107</v>
       </c>
       <c r="I164">
         <f t="shared" si="22"/>
@@ -12820,7 +12829,7 @@
     <row r="165" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H165" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.164869675398</v>
+        <v>43230.428617476326</v>
       </c>
       <c r="I165">
         <f t="shared" si="22"/>
@@ -12870,7 +12879,7 @@
     <row r="166" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H166" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.168341897617</v>
+        <v>43230.432089698545</v>
       </c>
       <c r="I166">
         <f t="shared" si="22"/>
@@ -12920,7 +12929,7 @@
     <row r="167" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H167" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.171814119836</v>
+        <v>43230.435561920764</v>
       </c>
       <c r="I167">
         <f t="shared" si="22"/>
@@ -12970,7 +12979,7 @@
     <row r="168" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H168" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.175286342055</v>
+        <v>43230.439034142983</v>
       </c>
       <c r="I168">
         <f t="shared" si="22"/>
@@ -13020,7 +13029,7 @@
     <row r="169" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H169" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.178758564274</v>
+        <v>43230.442506365202</v>
       </c>
       <c r="I169">
         <f t="shared" si="22"/>
@@ -13070,7 +13079,7 @@
     <row r="170" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H170" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.182230786493</v>
+        <v>43230.445978587421</v>
       </c>
       <c r="I170">
         <f t="shared" si="22"/>
@@ -13120,7 +13129,7 @@
     <row r="171" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H171" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.185703008712</v>
+        <v>43230.44945080964</v>
       </c>
       <c r="I171">
         <f t="shared" si="22"/>
@@ -13170,7 +13179,7 @@
     <row r="172" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H172" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.189175230931</v>
+        <v>43230.452923031859</v>
       </c>
       <c r="I172">
         <f t="shared" si="22"/>
@@ -13220,7 +13229,7 @@
     <row r="173" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H173" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.19264745315</v>
+        <v>43230.456395254078</v>
       </c>
       <c r="I173">
         <f t="shared" si="22"/>
@@ -13270,7 +13279,7 @@
     <row r="174" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H174" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.196119675369</v>
+        <v>43230.459867476296</v>
       </c>
       <c r="I174">
         <f t="shared" si="22"/>
@@ -13320,7 +13329,7 @@
     <row r="175" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H175" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.199591897588</v>
+        <v>43230.463339698515</v>
       </c>
       <c r="I175">
         <f t="shared" si="22"/>
@@ -13370,7 +13379,7 @@
     <row r="176" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H176" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.203064119807</v>
+        <v>43230.466811920734</v>
       </c>
       <c r="I176">
         <f t="shared" si="22"/>
@@ -13420,7 +13429,7 @@
     <row r="177" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H177" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.206536342026</v>
+        <v>43230.470284142953</v>
       </c>
       <c r="I177">
         <f t="shared" si="22"/>
@@ -13470,7 +13479,7 @@
     <row r="178" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H178" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.210008564245</v>
+        <v>43230.473756365172</v>
       </c>
       <c r="I178">
         <f t="shared" si="22"/>
@@ -13520,7 +13529,7 @@
     <row r="179" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H179" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.213480786464</v>
+        <v>43230.477228587391</v>
       </c>
       <c r="I179">
         <f t="shared" si="22"/>
@@ -13570,7 +13579,7 @@
     <row r="180" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H180" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.216953008683</v>
+        <v>43230.48070080961</v>
       </c>
       <c r="I180">
         <f t="shared" si="22"/>
@@ -13620,7 +13629,7 @@
     <row r="181" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H181" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.220425230902</v>
+        <v>43230.484173031829</v>
       </c>
       <c r="I181">
         <f t="shared" si="22"/>
@@ -13670,7 +13679,7 @@
     <row r="182" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H182" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.223897453121</v>
+        <v>43230.487645254048</v>
       </c>
       <c r="I182">
         <f t="shared" si="22"/>
@@ -13720,7 +13729,7 @@
     <row r="183" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H183" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.22736967534</v>
+        <v>43230.491117476267</v>
       </c>
       <c r="I183">
         <f t="shared" si="22"/>
@@ -13770,7 +13779,7 @@
     <row r="184" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H184" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.230841897559</v>
+        <v>43230.494589698486</v>
       </c>
       <c r="I184">
         <f t="shared" si="22"/>
@@ -13820,7 +13829,7 @@
     <row r="185" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H185" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.234314119778</v>
+        <v>43230.498061920705</v>
       </c>
       <c r="I185">
         <f t="shared" si="22"/>
@@ -13870,7 +13879,7 @@
     <row r="186" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H186" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.237786341997</v>
+        <v>43230.501534142924</v>
       </c>
       <c r="I186">
         <f t="shared" si="22"/>
@@ -13920,7 +13929,7 @@
     <row r="187" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H187" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.241258564216</v>
+        <v>43230.505006365143</v>
       </c>
       <c r="I187">
         <f t="shared" si="22"/>
@@ -13970,7 +13979,7 @@
     <row r="188" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H188" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.244730786435</v>
+        <v>43230.508478587362</v>
       </c>
       <c r="I188">
         <f t="shared" si="22"/>
@@ -14020,7 +14029,7 @@
     <row r="189" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H189" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.248203008654</v>
+        <v>43230.511950809581</v>
       </c>
       <c r="I189">
         <f t="shared" si="22"/>
@@ -14070,7 +14079,7 @@
     <row r="190" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H190" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.251675230873</v>
+        <v>43230.5154230318</v>
       </c>
       <c r="I190">
         <f t="shared" si="22"/>
@@ -14120,7 +14129,7 @@
     <row r="191" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H191" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.255147453092</v>
+        <v>43230.518895254019</v>
       </c>
       <c r="I191">
         <f t="shared" si="22"/>
@@ -14170,7 +14179,7 @@
     <row r="192" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H192" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.258619675311</v>
+        <v>43230.522367476238</v>
       </c>
       <c r="I192">
         <f t="shared" si="22"/>
@@ -14220,7 +14229,7 @@
     <row r="193" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H193" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.26209189753</v>
+        <v>43230.525839698457</v>
       </c>
       <c r="I193">
         <f t="shared" si="22"/>
@@ -14270,7 +14279,7 @@
     <row r="194" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H194" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.265564119749</v>
+        <v>43230.529311920676</v>
       </c>
       <c r="I194">
         <f t="shared" si="22"/>
@@ -14320,7 +14329,7 @@
     <row r="195" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H195" s="18">
         <f t="shared" ca="1" si="21"/>
-        <v>43210.269036341968</v>
+        <v>43230.532784142895</v>
       </c>
       <c r="I195">
         <f t="shared" si="22"/>
@@ -14370,7 +14379,7 @@
     <row r="196" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H196" s="18">
         <f t="shared" ref="H196:H259" ca="1" si="27">H195+$G$2/86400</f>
-        <v>43210.272508564187</v>
+        <v>43230.536256365114</v>
       </c>
       <c r="I196">
         <f t="shared" si="22"/>
@@ -14420,7 +14429,7 @@
     <row r="197" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H197" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.275980786406</v>
+        <v>43230.539728587333</v>
       </c>
       <c r="I197">
         <f t="shared" si="22"/>
@@ -14470,7 +14479,7 @@
     <row r="198" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H198" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.279453008625</v>
+        <v>43230.543200809552</v>
       </c>
       <c r="I198">
         <f t="shared" si="22"/>
@@ -14520,7 +14529,7 @@
     <row r="199" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H199" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.282925230844</v>
+        <v>43230.546673031771</v>
       </c>
       <c r="I199">
         <f t="shared" si="22"/>
@@ -14570,7 +14579,7 @@
     <row r="200" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H200" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.286397453063</v>
+        <v>43230.55014525399</v>
       </c>
       <c r="I200">
         <f t="shared" si="22"/>
@@ -14620,7 +14629,7 @@
     <row r="201" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H201" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.289869675282</v>
+        <v>43230.553617476209</v>
       </c>
       <c r="I201">
         <f t="shared" si="22"/>
@@ -14670,7 +14679,7 @@
     <row r="202" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H202" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.293341897501</v>
+        <v>43230.557089698428</v>
       </c>
       <c r="I202">
         <f t="shared" si="22"/>
@@ -14720,7 +14729,7 @@
     <row r="203" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H203" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.29681411972</v>
+        <v>43230.560561920647</v>
       </c>
       <c r="I203">
         <f t="shared" si="22"/>
@@ -14770,7 +14779,7 @@
     <row r="204" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H204" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.300286341939</v>
+        <v>43230.564034142866</v>
       </c>
       <c r="I204">
         <f t="shared" si="22"/>
@@ -14820,7 +14829,7 @@
     <row r="205" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H205" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.303758564158</v>
+        <v>43230.567506365085</v>
       </c>
       <c r="I205">
         <f t="shared" si="22"/>
@@ -14870,7 +14879,7 @@
     <row r="206" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H206" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.307230786377</v>
+        <v>43230.570978587304</v>
       </c>
       <c r="I206">
         <f t="shared" si="22"/>
@@ -14920,7 +14929,7 @@
     <row r="207" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H207" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.310703008596</v>
+        <v>43230.574450809523</v>
       </c>
       <c r="I207">
         <f t="shared" ref="I207:I270" si="28">IF($M206=1,I206-O206,ROUND(I206+B$2/3600*$G$2,0))</f>
@@ -14970,7 +14979,7 @@
     <row r="208" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H208" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.314175230815</v>
+        <v>43230.577923031742</v>
       </c>
       <c r="I208">
         <f t="shared" si="28"/>
@@ -15020,7 +15029,7 @@
     <row r="209" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H209" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.317647453034</v>
+        <v>43230.581395253961</v>
       </c>
       <c r="I209">
         <f t="shared" si="28"/>
@@ -15070,7 +15079,7 @@
     <row r="210" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H210" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.321119675253</v>
+        <v>43230.58486747618</v>
       </c>
       <c r="I210">
         <f t="shared" si="28"/>
@@ -15120,7 +15129,7 @@
     <row r="211" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H211" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.324591897472</v>
+        <v>43230.588339698399</v>
       </c>
       <c r="I211">
         <f t="shared" si="28"/>
@@ -15170,7 +15179,7 @@
     <row r="212" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H212" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.328064119691</v>
+        <v>43230.591811920618</v>
       </c>
       <c r="I212">
         <f t="shared" si="28"/>
@@ -15220,7 +15229,7 @@
     <row r="213" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H213" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.33153634191</v>
+        <v>43230.595284142837</v>
       </c>
       <c r="I213">
         <f t="shared" si="28"/>
@@ -15270,7 +15279,7 @@
     <row r="214" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H214" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.335008564129</v>
+        <v>43230.598756365056</v>
       </c>
       <c r="I214">
         <f t="shared" si="28"/>
@@ -15320,7 +15329,7 @@
     <row r="215" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H215" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.338480786348</v>
+        <v>43230.602228587275</v>
       </c>
       <c r="I215">
         <f t="shared" si="28"/>
@@ -15370,7 +15379,7 @@
     <row r="216" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H216" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.341953008567</v>
+        <v>43230.605700809494</v>
       </c>
       <c r="I216">
         <f t="shared" si="28"/>
@@ -15420,7 +15429,7 @@
     <row r="217" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H217" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.345425230786</v>
+        <v>43230.609173031713</v>
       </c>
       <c r="I217">
         <f t="shared" si="28"/>
@@ -15470,7 +15479,7 @@
     <row r="218" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H218" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.348897453005</v>
+        <v>43230.612645253932</v>
       </c>
       <c r="I218">
         <f t="shared" si="28"/>
@@ -15520,7 +15529,7 @@
     <row r="219" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H219" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.352369675224</v>
+        <v>43230.616117476151</v>
       </c>
       <c r="I219">
         <f t="shared" si="28"/>
@@ -15570,7 +15579,7 @@
     <row r="220" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H220" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.355841897443</v>
+        <v>43230.61958969837</v>
       </c>
       <c r="I220">
         <f t="shared" si="28"/>
@@ -15620,7 +15629,7 @@
     <row r="221" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H221" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.359314119662</v>
+        <v>43230.623061920589</v>
       </c>
       <c r="I221">
         <f t="shared" si="28"/>
@@ -15670,7 +15679,7 @@
     <row r="222" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H222" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.362786341881</v>
+        <v>43230.626534142808</v>
       </c>
       <c r="I222">
         <f t="shared" si="28"/>
@@ -15720,7 +15729,7 @@
     <row r="223" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H223" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.3662585641</v>
+        <v>43230.630006365027</v>
       </c>
       <c r="I223">
         <f t="shared" si="28"/>
@@ -15770,7 +15779,7 @@
     <row r="224" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H224" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.369730786319</v>
+        <v>43230.633478587246</v>
       </c>
       <c r="I224">
         <f t="shared" si="28"/>
@@ -15820,7 +15829,7 @@
     <row r="225" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H225" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.373203008538</v>
+        <v>43230.636950809465</v>
       </c>
       <c r="I225">
         <f t="shared" si="28"/>
@@ -15870,7 +15879,7 @@
     <row r="226" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H226" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.376675230757</v>
+        <v>43230.640423031684</v>
       </c>
       <c r="I226">
         <f t="shared" si="28"/>
@@ -15920,7 +15929,7 @@
     <row r="227" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H227" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.380147452976</v>
+        <v>43230.643895253903</v>
       </c>
       <c r="I227">
         <f t="shared" si="28"/>
@@ -15970,7 +15979,7 @@
     <row r="228" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H228" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.383619675194</v>
+        <v>43230.647367476122</v>
       </c>
       <c r="I228">
         <f t="shared" si="28"/>
@@ -16020,7 +16029,7 @@
     <row r="229" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H229" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.387091897413</v>
+        <v>43230.650839698341</v>
       </c>
       <c r="I229">
         <f t="shared" si="28"/>
@@ -16070,7 +16079,7 @@
     <row r="230" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H230" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.390564119632</v>
+        <v>43230.65431192056</v>
       </c>
       <c r="I230">
         <f t="shared" si="28"/>
@@ -16120,7 +16129,7 @@
     <row r="231" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H231" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.394036341851</v>
+        <v>43230.657784142779</v>
       </c>
       <c r="I231">
         <f t="shared" si="28"/>
@@ -16170,7 +16179,7 @@
     <row r="232" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H232" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.39750856407</v>
+        <v>43230.661256364998</v>
       </c>
       <c r="I232">
         <f t="shared" si="28"/>
@@ -16220,7 +16229,7 @@
     <row r="233" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H233" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.400980786289</v>
+        <v>43230.664728587217</v>
       </c>
       <c r="I233">
         <f t="shared" si="28"/>
@@ -16270,7 +16279,7 @@
     <row r="234" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H234" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.404453008508</v>
+        <v>43230.668200809436</v>
       </c>
       <c r="I234">
         <f t="shared" si="28"/>
@@ -16320,7 +16329,7 @@
     <row r="235" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H235" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.407925230727</v>
+        <v>43230.671673031655</v>
       </c>
       <c r="I235">
         <f t="shared" si="28"/>
@@ -16370,7 +16379,7 @@
     <row r="236" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H236" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.411397452946</v>
+        <v>43230.675145253874</v>
       </c>
       <c r="I236">
         <f t="shared" si="28"/>
@@ -16420,7 +16429,7 @@
     <row r="237" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H237" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.414869675165</v>
+        <v>43230.678617476093</v>
       </c>
       <c r="I237">
         <f t="shared" si="28"/>
@@ -16470,7 +16479,7 @@
     <row r="238" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H238" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.418341897384</v>
+        <v>43230.682089698312</v>
       </c>
       <c r="I238">
         <f t="shared" si="28"/>
@@ -16520,7 +16529,7 @@
     <row r="239" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H239" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.421814119603</v>
+        <v>43230.685561920531</v>
       </c>
       <c r="I239">
         <f t="shared" si="28"/>
@@ -16570,7 +16579,7 @@
     <row r="240" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H240" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.425286341822</v>
+        <v>43230.68903414275</v>
       </c>
       <c r="I240">
         <f t="shared" si="28"/>
@@ -16620,7 +16629,7 @@
     <row r="241" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H241" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.428758564041</v>
+        <v>43230.692506364969</v>
       </c>
       <c r="I241">
         <f t="shared" si="28"/>
@@ -16670,7 +16679,7 @@
     <row r="242" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H242" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.43223078626</v>
+        <v>43230.695978587188</v>
       </c>
       <c r="I242">
         <f t="shared" si="28"/>
@@ -16720,7 +16729,7 @@
     <row r="243" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H243" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.435703008479</v>
+        <v>43230.699450809407</v>
       </c>
       <c r="I243">
         <f t="shared" si="28"/>
@@ -16770,7 +16779,7 @@
     <row r="244" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H244" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.439175230698</v>
+        <v>43230.702923031626</v>
       </c>
       <c r="I244">
         <f t="shared" si="28"/>
@@ -16820,7 +16829,7 @@
     <row r="245" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H245" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.442647452917</v>
+        <v>43230.706395253845</v>
       </c>
       <c r="I245">
         <f t="shared" si="28"/>
@@ -16870,7 +16879,7 @@
     <row r="246" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H246" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.446119675136</v>
+        <v>43230.709867476064</v>
       </c>
       <c r="I246">
         <f t="shared" si="28"/>
@@ -16920,7 +16929,7 @@
     <row r="247" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H247" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.449591897355</v>
+        <v>43230.713339698283</v>
       </c>
       <c r="I247">
         <f t="shared" si="28"/>
@@ -16970,7 +16979,7 @@
     <row r="248" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H248" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.453064119574</v>
+        <v>43230.716811920502</v>
       </c>
       <c r="I248">
         <f t="shared" si="28"/>
@@ -17020,7 +17029,7 @@
     <row r="249" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H249" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.456536341793</v>
+        <v>43230.720284142721</v>
       </c>
       <c r="I249">
         <f t="shared" si="28"/>
@@ -17070,7 +17079,7 @@
     <row r="250" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H250" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.460008564012</v>
+        <v>43230.72375636494</v>
       </c>
       <c r="I250">
         <f t="shared" si="28"/>
@@ -17120,7 +17129,7 @@
     <row r="251" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H251" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.463480786231</v>
+        <v>43230.727228587159</v>
       </c>
       <c r="I251">
         <f t="shared" si="28"/>
@@ -17170,7 +17179,7 @@
     <row r="252" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H252" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.46695300845</v>
+        <v>43230.730700809378</v>
       </c>
       <c r="I252">
         <f t="shared" si="28"/>
@@ -17220,7 +17229,7 @@
     <row r="253" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H253" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.470425230669</v>
+        <v>43230.734173031597</v>
       </c>
       <c r="I253">
         <f t="shared" si="28"/>
@@ -17270,7 +17279,7 @@
     <row r="254" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H254" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.473897452888</v>
+        <v>43230.737645253816</v>
       </c>
       <c r="I254">
         <f t="shared" si="28"/>
@@ -17320,7 +17329,7 @@
     <row r="255" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H255" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.477369675107</v>
+        <v>43230.741117476035</v>
       </c>
       <c r="I255">
         <f t="shared" si="28"/>
@@ -17370,7 +17379,7 @@
     <row r="256" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H256" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.480841897326</v>
+        <v>43230.744589698254</v>
       </c>
       <c r="I256">
         <f t="shared" si="28"/>
@@ -17420,7 +17429,7 @@
     <row r="257" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H257" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.484314119545</v>
+        <v>43230.748061920473</v>
       </c>
       <c r="I257">
         <f t="shared" si="28"/>
@@ -17470,7 +17479,7 @@
     <row r="258" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H258" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.487786341764</v>
+        <v>43230.751534142692</v>
       </c>
       <c r="I258">
         <f t="shared" si="28"/>
@@ -17520,7 +17529,7 @@
     <row r="259" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H259" s="18">
         <f t="shared" ca="1" si="27"/>
-        <v>43210.491258563983</v>
+        <v>43230.755006364911</v>
       </c>
       <c r="I259">
         <f t="shared" si="28"/>
@@ -17570,7 +17579,7 @@
     <row r="260" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H260" s="18">
         <f t="shared" ref="H260:H323" ca="1" si="33">H259+$G$2/86400</f>
-        <v>43210.494730786202</v>
+        <v>43230.75847858713</v>
       </c>
       <c r="I260">
         <f t="shared" si="28"/>
@@ -17620,7 +17629,7 @@
     <row r="261" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H261" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.498203008421</v>
+        <v>43230.761950809348</v>
       </c>
       <c r="I261">
         <f t="shared" si="28"/>
@@ -17670,7 +17679,7 @@
     <row r="262" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H262" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.50167523064</v>
+        <v>43230.765423031567</v>
       </c>
       <c r="I262">
         <f t="shared" si="28"/>
@@ -17720,7 +17729,7 @@
     <row r="263" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H263" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.505147452859</v>
+        <v>43230.768895253786</v>
       </c>
       <c r="I263">
         <f t="shared" si="28"/>
@@ -17770,7 +17779,7 @@
     <row r="264" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H264" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.508619675078</v>
+        <v>43230.772367476005</v>
       </c>
       <c r="I264">
         <f t="shared" si="28"/>
@@ -17820,7 +17829,7 @@
     <row r="265" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H265" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.512091897297</v>
+        <v>43230.775839698224</v>
       </c>
       <c r="I265">
         <f t="shared" si="28"/>
@@ -17870,7 +17879,7 @@
     <row r="266" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H266" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.515564119516</v>
+        <v>43230.779311920443</v>
       </c>
       <c r="I266">
         <f t="shared" si="28"/>
@@ -17920,7 +17929,7 @@
     <row r="267" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H267" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.519036341735</v>
+        <v>43230.782784142662</v>
       </c>
       <c r="I267">
         <f t="shared" si="28"/>
@@ -17970,7 +17979,7 @@
     <row r="268" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H268" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.522508563954</v>
+        <v>43230.786256364881</v>
       </c>
       <c r="I268">
         <f t="shared" si="28"/>
@@ -18020,7 +18029,7 @@
     <row r="269" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H269" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.525980786173</v>
+        <v>43230.7897285871</v>
       </c>
       <c r="I269">
         <f t="shared" si="28"/>
@@ -18070,7 +18079,7 @@
     <row r="270" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H270" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.529453008392</v>
+        <v>43230.793200809319</v>
       </c>
       <c r="I270">
         <f t="shared" si="28"/>
@@ -18120,7 +18129,7 @@
     <row r="271" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H271" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.532925230611</v>
+        <v>43230.796673031538</v>
       </c>
       <c r="I271">
         <f t="shared" ref="I271:I334" si="34">IF($M270=1,I270-O270,ROUND(I270+B$2/3600*$G$2,0))</f>
@@ -18170,7 +18179,7 @@
     <row r="272" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H272" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.53639745283</v>
+        <v>43230.800145253757</v>
       </c>
       <c r="I272">
         <f t="shared" si="34"/>
@@ -18220,7 +18229,7 @@
     <row r="273" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H273" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.539869675049</v>
+        <v>43230.803617475976</v>
       </c>
       <c r="I273">
         <f t="shared" si="34"/>
@@ -18270,7 +18279,7 @@
     <row r="274" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H274" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.543341897268</v>
+        <v>43230.807089698195</v>
       </c>
       <c r="I274">
         <f t="shared" si="34"/>
@@ -18320,7 +18329,7 @@
     <row r="275" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H275" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.546814119487</v>
+        <v>43230.810561920414</v>
       </c>
       <c r="I275">
         <f t="shared" si="34"/>
@@ -18370,7 +18379,7 @@
     <row r="276" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H276" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.550286341706</v>
+        <v>43230.814034142633</v>
       </c>
       <c r="I276">
         <f t="shared" si="34"/>
@@ -18420,7 +18429,7 @@
     <row r="277" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H277" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.553758563925</v>
+        <v>43230.817506364852</v>
       </c>
       <c r="I277">
         <f t="shared" si="34"/>
@@ -18470,7 +18479,7 @@
     <row r="278" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H278" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.557230786144</v>
+        <v>43230.820978587071</v>
       </c>
       <c r="I278">
         <f t="shared" si="34"/>
@@ -18520,7 +18529,7 @@
     <row r="279" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H279" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.560703008363</v>
+        <v>43230.82445080929</v>
       </c>
       <c r="I279">
         <f t="shared" si="34"/>
@@ -18570,7 +18579,7 @@
     <row r="280" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H280" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.564175230582</v>
+        <v>43230.827923031509</v>
       </c>
       <c r="I280">
         <f t="shared" si="34"/>
@@ -18620,7 +18629,7 @@
     <row r="281" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H281" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.567647452801</v>
+        <v>43230.831395253728</v>
       </c>
       <c r="I281">
         <f t="shared" si="34"/>
@@ -18670,7 +18679,7 @@
     <row r="282" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H282" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.57111967502</v>
+        <v>43230.834867475947</v>
       </c>
       <c r="I282">
         <f t="shared" si="34"/>
@@ -18720,7 +18729,7 @@
     <row r="283" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H283" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.574591897239</v>
+        <v>43230.838339698166</v>
       </c>
       <c r="I283">
         <f t="shared" si="34"/>
@@ -18770,7 +18779,7 @@
     <row r="284" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H284" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.578064119458</v>
+        <v>43230.841811920385</v>
       </c>
       <c r="I284">
         <f t="shared" si="34"/>
@@ -18820,7 +18829,7 @@
     <row r="285" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H285" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.581536341677</v>
+        <v>43230.845284142604</v>
       </c>
       <c r="I285">
         <f t="shared" si="34"/>
@@ -18870,7 +18879,7 @@
     <row r="286" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H286" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.585008563896</v>
+        <v>43230.848756364823</v>
       </c>
       <c r="I286">
         <f t="shared" si="34"/>
@@ -18920,7 +18929,7 @@
     <row r="287" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H287" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.588480786115</v>
+        <v>43230.852228587042</v>
       </c>
       <c r="I287">
         <f t="shared" si="34"/>
@@ -18970,7 +18979,7 @@
     <row r="288" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H288" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.591953008334</v>
+        <v>43230.855700809261</v>
       </c>
       <c r="I288">
         <f t="shared" si="34"/>
@@ -19020,7 +19029,7 @@
     <row r="289" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H289" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.595425230553</v>
+        <v>43230.85917303148</v>
       </c>
       <c r="I289">
         <f t="shared" si="34"/>
@@ -19070,7 +19079,7 @@
     <row r="290" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H290" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.598897452772</v>
+        <v>43230.862645253699</v>
       </c>
       <c r="I290">
         <f t="shared" si="34"/>
@@ -19120,7 +19129,7 @@
     <row r="291" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H291" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.602369674991</v>
+        <v>43230.866117475918</v>
       </c>
       <c r="I291">
         <f t="shared" si="34"/>
@@ -19170,7 +19179,7 @@
     <row r="292" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H292" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.60584189721</v>
+        <v>43230.869589698137</v>
       </c>
       <c r="I292">
         <f t="shared" si="34"/>
@@ -19220,7 +19229,7 @@
     <row r="293" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H293" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.609314119429</v>
+        <v>43230.873061920356</v>
       </c>
       <c r="I293">
         <f t="shared" si="34"/>
@@ -19270,7 +19279,7 @@
     <row r="294" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H294" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.612786341648</v>
+        <v>43230.876534142575</v>
       </c>
       <c r="I294">
         <f t="shared" si="34"/>
@@ -19320,7 +19329,7 @@
     <row r="295" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H295" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.616258563867</v>
+        <v>43230.880006364794</v>
       </c>
       <c r="I295">
         <f t="shared" si="34"/>
@@ -19370,7 +19379,7 @@
     <row r="296" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H296" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.619730786086</v>
+        <v>43230.883478587013</v>
       </c>
       <c r="I296">
         <f t="shared" si="34"/>
@@ -19420,7 +19429,7 @@
     <row r="297" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H297" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.623203008305</v>
+        <v>43230.886950809232</v>
       </c>
       <c r="I297">
         <f t="shared" si="34"/>
@@ -19470,7 +19479,7 @@
     <row r="298" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H298" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.626675230524</v>
+        <v>43230.890423031451</v>
       </c>
       <c r="I298">
         <f t="shared" si="34"/>
@@ -19520,7 +19529,7 @@
     <row r="299" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H299" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.630147452743</v>
+        <v>43230.89389525367</v>
       </c>
       <c r="I299">
         <f t="shared" si="34"/>
@@ -19570,7 +19579,7 @@
     <row r="300" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H300" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.633619674962</v>
+        <v>43230.897367475889</v>
       </c>
       <c r="I300">
         <f t="shared" si="34"/>
@@ -19620,7 +19629,7 @@
     <row r="301" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H301" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.637091897181</v>
+        <v>43230.900839698108</v>
       </c>
       <c r="I301">
         <f t="shared" si="34"/>
@@ -19670,7 +19679,7 @@
     <row r="302" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H302" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.6405641194</v>
+        <v>43230.904311920327</v>
       </c>
       <c r="I302">
         <f t="shared" si="34"/>
@@ -19720,7 +19729,7 @@
     <row r="303" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H303" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.644036341619</v>
+        <v>43230.907784142546</v>
       </c>
       <c r="I303">
         <f t="shared" si="34"/>
@@ -19770,7 +19779,7 @@
     <row r="304" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H304" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.647508563838</v>
+        <v>43230.911256364765</v>
       </c>
       <c r="I304">
         <f t="shared" si="34"/>
@@ -19820,7 +19829,7 @@
     <row r="305" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H305" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.650980786057</v>
+        <v>43230.914728586984</v>
       </c>
       <c r="I305">
         <f t="shared" si="34"/>
@@ -19870,7 +19879,7 @@
     <row r="306" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H306" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.654453008276</v>
+        <v>43230.918200809203</v>
       </c>
       <c r="I306">
         <f t="shared" si="34"/>
@@ -19920,7 +19929,7 @@
     <row r="307" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H307" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.657925230495</v>
+        <v>43230.921673031422</v>
       </c>
       <c r="I307">
         <f t="shared" si="34"/>
@@ -19970,7 +19979,7 @@
     <row r="308" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H308" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.661397452714</v>
+        <v>43230.925145253641</v>
       </c>
       <c r="I308">
         <f t="shared" si="34"/>
@@ -20020,7 +20029,7 @@
     <row r="309" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H309" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.664869674933</v>
+        <v>43230.92861747586</v>
       </c>
       <c r="I309">
         <f t="shared" si="34"/>
@@ -20070,7 +20079,7 @@
     <row r="310" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H310" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.668341897152</v>
+        <v>43230.932089698079</v>
       </c>
       <c r="I310">
         <f t="shared" si="34"/>
@@ -20120,7 +20129,7 @@
     <row r="311" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H311" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.671814119371</v>
+        <v>43230.935561920298</v>
       </c>
       <c r="I311">
         <f t="shared" si="34"/>
@@ -20170,7 +20179,7 @@
     <row r="312" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H312" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.67528634159</v>
+        <v>43230.939034142517</v>
       </c>
       <c r="I312">
         <f t="shared" si="34"/>
@@ -20220,7 +20229,7 @@
     <row r="313" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H313" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.678758563809</v>
+        <v>43230.942506364736</v>
       </c>
       <c r="I313">
         <f t="shared" si="34"/>
@@ -20270,7 +20279,7 @@
     <row r="314" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H314" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.682230786028</v>
+        <v>43230.945978586955</v>
       </c>
       <c r="I314">
         <f t="shared" si="34"/>
@@ -20320,7 +20329,7 @@
     <row r="315" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H315" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.685703008246</v>
+        <v>43230.949450809174</v>
       </c>
       <c r="I315">
         <f t="shared" si="34"/>
@@ -20370,7 +20379,7 @@
     <row r="316" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H316" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.689175230465</v>
+        <v>43230.952923031393</v>
       </c>
       <c r="I316">
         <f t="shared" si="34"/>
@@ -20420,7 +20429,7 @@
     <row r="317" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H317" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.692647452684</v>
+        <v>43230.956395253612</v>
       </c>
       <c r="I317">
         <f t="shared" si="34"/>
@@ -20470,7 +20479,7 @@
     <row r="318" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H318" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.696119674903</v>
+        <v>43230.959867475831</v>
       </c>
       <c r="I318">
         <f t="shared" si="34"/>
@@ -20520,7 +20529,7 @@
     <row r="319" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H319" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.699591897122</v>
+        <v>43230.96333969805</v>
       </c>
       <c r="I319">
         <f t="shared" si="34"/>
@@ -20570,7 +20579,7 @@
     <row r="320" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H320" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.703064119341</v>
+        <v>43230.966811920269</v>
       </c>
       <c r="I320">
         <f t="shared" si="34"/>
@@ -20620,7 +20629,7 @@
     <row r="321" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H321" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.70653634156</v>
+        <v>43230.970284142488</v>
       </c>
       <c r="I321">
         <f t="shared" si="34"/>
@@ -20670,7 +20679,7 @@
     <row r="322" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H322" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.710008563779</v>
+        <v>43230.973756364707</v>
       </c>
       <c r="I322">
         <f t="shared" si="34"/>
@@ -20720,7 +20729,7 @@
     <row r="323" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H323" s="18">
         <f t="shared" ca="1" si="33"/>
-        <v>43210.713480785998</v>
+        <v>43230.977228586926</v>
       </c>
       <c r="I323">
         <f t="shared" si="34"/>
@@ -20770,7 +20779,7 @@
     <row r="324" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H324" s="18">
         <f t="shared" ref="H324:H369" ca="1" si="39">H323+$G$2/86400</f>
-        <v>43210.716953008217</v>
+        <v>43230.980700809145</v>
       </c>
       <c r="I324">
         <f t="shared" si="34"/>
@@ -20820,7 +20829,7 @@
     <row r="325" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H325" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.720425230436</v>
+        <v>43230.984173031364</v>
       </c>
       <c r="I325">
         <f t="shared" si="34"/>
@@ -20870,7 +20879,7 @@
     <row r="326" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H326" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.723897452655</v>
+        <v>43230.987645253583</v>
       </c>
       <c r="I326">
         <f t="shared" si="34"/>
@@ -20920,7 +20929,7 @@
     <row r="327" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H327" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.727369674874</v>
+        <v>43230.991117475802</v>
       </c>
       <c r="I327">
         <f t="shared" si="34"/>
@@ -20970,7 +20979,7 @@
     <row r="328" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H328" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.730841897093</v>
+        <v>43230.994589698021</v>
       </c>
       <c r="I328">
         <f t="shared" si="34"/>
@@ -21020,7 +21029,7 @@
     <row r="329" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H329" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.734314119312</v>
+        <v>43230.99806192024</v>
       </c>
       <c r="I329">
         <f t="shared" si="34"/>
@@ -21070,7 +21079,7 @@
     <row r="330" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H330" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.737786341531</v>
+        <v>43231.001534142459</v>
       </c>
       <c r="I330">
         <f t="shared" si="34"/>
@@ -21120,7 +21129,7 @@
     <row r="331" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H331" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.74125856375</v>
+        <v>43231.005006364678</v>
       </c>
       <c r="I331">
         <f t="shared" si="34"/>
@@ -21170,7 +21179,7 @@
     <row r="332" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H332" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.744730785969</v>
+        <v>43231.008478586897</v>
       </c>
       <c r="I332">
         <f t="shared" si="34"/>
@@ -21220,7 +21229,7 @@
     <row r="333" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H333" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.748203008188</v>
+        <v>43231.011950809116</v>
       </c>
       <c r="I333">
         <f t="shared" si="34"/>
@@ -21270,7 +21279,7 @@
     <row r="334" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H334" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.751675230407</v>
+        <v>43231.015423031335</v>
       </c>
       <c r="I334">
         <f t="shared" si="34"/>
@@ -21320,7 +21329,7 @@
     <row r="335" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H335" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.755147452626</v>
+        <v>43231.018895253554</v>
       </c>
       <c r="I335">
         <f t="shared" ref="I335:I357" si="40">IF($M334=1,I334-O334,ROUND(I334+B$2/3600*$G$2,0))</f>
@@ -21370,7 +21379,7 @@
     <row r="336" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H336" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.758619674845</v>
+        <v>43231.022367475773</v>
       </c>
       <c r="I336">
         <f t="shared" si="40"/>
@@ -21420,7 +21429,7 @@
     <row r="337" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H337" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.762091897064</v>
+        <v>43231.025839697992</v>
       </c>
       <c r="I337">
         <f t="shared" si="40"/>
@@ -21470,7 +21479,7 @@
     <row r="338" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H338" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.765564119283</v>
+        <v>43231.029311920211</v>
       </c>
       <c r="I338">
         <f t="shared" si="40"/>
@@ -21520,7 +21529,7 @@
     <row r="339" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H339" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.769036341502</v>
+        <v>43231.03278414243</v>
       </c>
       <c r="I339">
         <f t="shared" si="40"/>
@@ -21570,7 +21579,7 @@
     <row r="340" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H340" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.772508563721</v>
+        <v>43231.036256364649</v>
       </c>
       <c r="I340">
         <f t="shared" si="40"/>
@@ -21620,7 +21629,7 @@
     <row r="341" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H341" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.77598078594</v>
+        <v>43231.039728586868</v>
       </c>
       <c r="I341">
         <f t="shared" si="40"/>
@@ -21670,7 +21679,7 @@
     <row r="342" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H342" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.779453008159</v>
+        <v>43231.043200809087</v>
       </c>
       <c r="I342">
         <f t="shared" si="40"/>
@@ -21720,7 +21729,7 @@
     <row r="343" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H343" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.782925230378</v>
+        <v>43231.046673031306</v>
       </c>
       <c r="I343">
         <f t="shared" si="40"/>
@@ -21770,7 +21779,7 @@
     <row r="344" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H344" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.786397452597</v>
+        <v>43231.050145253525</v>
       </c>
       <c r="I344">
         <f t="shared" si="40"/>
@@ -21820,7 +21829,7 @@
     <row r="345" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H345" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.789869674816</v>
+        <v>43231.053617475744</v>
       </c>
       <c r="I345">
         <f t="shared" si="40"/>
@@ -21870,7 +21879,7 @@
     <row r="346" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H346" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.793341897035</v>
+        <v>43231.057089697963</v>
       </c>
       <c r="I346">
         <f t="shared" si="40"/>
@@ -21920,7 +21929,7 @@
     <row r="347" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H347" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.796814119254</v>
+        <v>43231.060561920181</v>
       </c>
       <c r="I347">
         <f t="shared" si="40"/>
@@ -21970,7 +21979,7 @@
     <row r="348" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H348" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.800286341473</v>
+        <v>43231.0640341424</v>
       </c>
       <c r="I348">
         <f t="shared" si="40"/>
@@ -22020,7 +22029,7 @@
     <row r="349" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H349" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.803758563692</v>
+        <v>43231.067506364619</v>
       </c>
       <c r="I349">
         <f t="shared" si="40"/>
@@ -22070,7 +22079,7 @@
     <row r="350" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H350" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.807230785911</v>
+        <v>43231.070978586838</v>
       </c>
       <c r="I350">
         <f t="shared" si="40"/>
@@ -22120,7 +22129,7 @@
     <row r="351" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H351" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.81070300813</v>
+        <v>43231.074450809057</v>
       </c>
       <c r="I351">
         <f t="shared" si="40"/>
@@ -22170,7 +22179,7 @@
     <row r="352" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H352" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.814175230349</v>
+        <v>43231.077923031276</v>
       </c>
       <c r="I352">
         <f t="shared" si="40"/>
@@ -22220,7 +22229,7 @@
     <row r="353" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H353" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.817647452568</v>
+        <v>43231.081395253495</v>
       </c>
       <c r="I353">
         <f t="shared" si="40"/>
@@ -22270,7 +22279,7 @@
     <row r="354" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H354" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.821119674787</v>
+        <v>43231.084867475714</v>
       </c>
       <c r="I354">
         <f t="shared" si="40"/>
@@ -22320,7 +22329,7 @@
     <row r="355" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H355" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.824591897006</v>
+        <v>43231.088339697933</v>
       </c>
       <c r="I355">
         <f t="shared" si="40"/>
@@ -22370,7 +22379,7 @@
     <row r="356" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H356" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.828064119225</v>
+        <v>43231.091811920152</v>
       </c>
       <c r="I356">
         <f t="shared" si="40"/>
@@ -22420,7 +22429,7 @@
     <row r="357" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H357" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.831536341444</v>
+        <v>43231.095284142371</v>
       </c>
       <c r="I357">
         <f t="shared" si="40"/>
@@ -22470,7 +22479,7 @@
     <row r="358" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H358" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.835008563663</v>
+        <v>43231.09875636459</v>
       </c>
       <c r="I358">
         <f t="shared" ref="I358:I367" si="44">ROUND(I357+B$2/3600*$G$2,0)</f>
@@ -22520,7 +22529,7 @@
     <row r="359" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H359" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.838480785882</v>
+        <v>43231.102228586809</v>
       </c>
       <c r="I359">
         <f t="shared" si="44"/>
@@ -22570,7 +22579,7 @@
     <row r="360" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H360" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.841953008101</v>
+        <v>43231.105700809028</v>
       </c>
       <c r="I360">
         <f t="shared" si="44"/>
@@ -22620,7 +22629,7 @@
     <row r="361" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H361" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.84542523032</v>
+        <v>43231.109173031247</v>
       </c>
       <c r="I361">
         <f t="shared" si="44"/>
@@ -22670,7 +22679,7 @@
     <row r="362" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H362" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.848897452539</v>
+        <v>43231.112645253466</v>
       </c>
       <c r="I362">
         <f t="shared" si="44"/>
@@ -22720,7 +22729,7 @@
     <row r="363" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H363" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.852369674758</v>
+        <v>43231.116117475685</v>
       </c>
       <c r="I363">
         <f t="shared" si="44"/>
@@ -22770,7 +22779,7 @@
     <row r="364" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H364" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.855841896977</v>
+        <v>43231.119589697904</v>
       </c>
       <c r="I364">
         <f t="shared" si="44"/>
@@ -22820,7 +22829,7 @@
     <row r="365" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H365" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.859314119196</v>
+        <v>43231.123061920123</v>
       </c>
       <c r="I365">
         <f t="shared" si="44"/>
@@ -22870,7 +22879,7 @@
     <row r="366" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H366" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.862786341415</v>
+        <v>43231.126534142342</v>
       </c>
       <c r="I366">
         <f t="shared" si="44"/>
@@ -22920,7 +22929,7 @@
     <row r="367" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H367" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.866258563634</v>
+        <v>43231.130006364561</v>
       </c>
       <c r="I367">
         <f t="shared" si="44"/>
@@ -22970,7 +22979,7 @@
     <row r="368" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H368" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.869730785853</v>
+        <v>43231.13347858678</v>
       </c>
       <c r="I368">
         <f t="shared" ref="I368:I369" si="48">ROUND(I367+B$2/3600*$G$2,0)</f>
@@ -23020,7 +23029,7 @@
     <row r="369" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H369" s="18">
         <f t="shared" ca="1" si="39"/>
-        <v>43210.873203008072</v>
+        <v>43231.136950808999</v>
       </c>
       <c r="I369">
         <f t="shared" si="48"/>
@@ -23070,7 +23079,7 @@
     <row r="370" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H370" s="18">
         <f t="shared" ref="H370:H398" ca="1" si="52">H369+$G$2/86400</f>
-        <v>43210.876675230291</v>
+        <v>43231.140423031218</v>
       </c>
       <c r="I370">
         <f t="shared" ref="I370:I398" si="53">ROUND(I369+B$2/3600*$G$2,0)</f>
@@ -23120,7 +23129,7 @@
     <row r="371" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H371" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.88014745251</v>
+        <v>43231.143895253437</v>
       </c>
       <c r="I371">
         <f t="shared" si="53"/>
@@ -23170,7 +23179,7 @@
     <row r="372" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H372" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.883619674729</v>
+        <v>43231.147367475656</v>
       </c>
       <c r="I372">
         <f t="shared" si="53"/>
@@ -23220,7 +23229,7 @@
     <row r="373" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H373" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.887091896948</v>
+        <v>43231.150839697875</v>
       </c>
       <c r="I373">
         <f t="shared" si="53"/>
@@ -23270,7 +23279,7 @@
     <row r="374" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H374" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.890564119167</v>
+        <v>43231.154311920094</v>
       </c>
       <c r="I374">
         <f t="shared" si="53"/>
@@ -23320,7 +23329,7 @@
     <row r="375" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H375" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.894036341386</v>
+        <v>43231.157784142313</v>
       </c>
       <c r="I375">
         <f t="shared" si="53"/>
@@ -23370,7 +23379,7 @@
     <row r="376" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H376" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.897508563605</v>
+        <v>43231.161256364532</v>
       </c>
       <c r="I376">
         <f t="shared" si="53"/>
@@ -23420,7 +23429,7 @@
     <row r="377" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H377" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.900980785824</v>
+        <v>43231.164728586751</v>
       </c>
       <c r="I377">
         <f t="shared" si="53"/>
@@ -23470,7 +23479,7 @@
     <row r="378" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H378" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.904453008043</v>
+        <v>43231.16820080897</v>
       </c>
       <c r="I378">
         <f t="shared" si="53"/>
@@ -23520,7 +23529,7 @@
     <row r="379" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H379" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.907925230262</v>
+        <v>43231.171673031189</v>
       </c>
       <c r="I379">
         <f t="shared" si="53"/>
@@ -23570,7 +23579,7 @@
     <row r="380" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H380" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.911397452481</v>
+        <v>43231.175145253408</v>
       </c>
       <c r="I380">
         <f t="shared" si="53"/>
@@ -23620,7 +23629,7 @@
     <row r="381" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H381" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.9148696747</v>
+        <v>43231.178617475627</v>
       </c>
       <c r="I381">
         <f t="shared" si="53"/>
@@ -23670,7 +23679,7 @@
     <row r="382" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H382" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.918341896919</v>
+        <v>43231.182089697846</v>
       </c>
       <c r="I382">
         <f t="shared" si="53"/>
@@ -23720,7 +23729,7 @@
     <row r="383" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H383" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.921814119138</v>
+        <v>43231.185561920065</v>
       </c>
       <c r="I383">
         <f t="shared" si="53"/>
@@ -23770,7 +23779,7 @@
     <row r="384" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H384" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.925286341357</v>
+        <v>43231.189034142284</v>
       </c>
       <c r="I384">
         <f t="shared" si="53"/>
@@ -23820,7 +23829,7 @@
     <row r="385" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H385" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.928758563576</v>
+        <v>43231.192506364503</v>
       </c>
       <c r="I385">
         <f t="shared" si="53"/>
@@ -23870,7 +23879,7 @@
     <row r="386" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H386" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.932230785795</v>
+        <v>43231.195978586722</v>
       </c>
       <c r="I386">
         <f t="shared" si="53"/>
@@ -23920,7 +23929,7 @@
     <row r="387" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H387" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.935703008014</v>
+        <v>43231.199450808941</v>
       </c>
       <c r="I387">
         <f t="shared" si="53"/>
@@ -23970,7 +23979,7 @@
     <row r="388" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H388" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.939175230233</v>
+        <v>43231.20292303116</v>
       </c>
       <c r="I388">
         <f t="shared" si="53"/>
@@ -24020,7 +24029,7 @@
     <row r="389" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H389" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.942647452452</v>
+        <v>43231.206395253379</v>
       </c>
       <c r="I389">
         <f t="shared" si="53"/>
@@ -24070,7 +24079,7 @@
     <row r="390" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H390" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.946119674671</v>
+        <v>43231.209867475598</v>
       </c>
       <c r="I390">
         <f t="shared" si="53"/>
@@ -24120,7 +24129,7 @@
     <row r="391" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H391" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.94959189689</v>
+        <v>43231.213339697817</v>
       </c>
       <c r="I391">
         <f t="shared" si="53"/>
@@ -24170,7 +24179,7 @@
     <row r="392" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H392" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.953064119109</v>
+        <v>43231.216811920036</v>
       </c>
       <c r="I392">
         <f t="shared" si="53"/>
@@ -24220,7 +24229,7 @@
     <row r="393" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H393" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.956536341328</v>
+        <v>43231.220284142255</v>
       </c>
       <c r="I393">
         <f t="shared" si="53"/>
@@ -24270,7 +24279,7 @@
     <row r="394" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H394" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.960008563547</v>
+        <v>43231.223756364474</v>
       </c>
       <c r="I394">
         <f t="shared" si="53"/>
@@ -24320,7 +24329,7 @@
     <row r="395" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H395" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.963480785766</v>
+        <v>43231.227228586693</v>
       </c>
       <c r="I395">
         <f t="shared" si="53"/>
@@ -24370,7 +24379,7 @@
     <row r="396" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H396" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.966953007985</v>
+        <v>43231.230700808912</v>
       </c>
       <c r="I396">
         <f t="shared" si="53"/>
@@ -24420,7 +24429,7 @@
     <row r="397" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H397" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.970425230204</v>
+        <v>43231.234173031131</v>
       </c>
       <c r="I397">
         <f t="shared" si="53"/>
@@ -24470,7 +24479,7 @@
     <row r="398" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H398" s="18">
         <f t="shared" ca="1" si="52"/>
-        <v>43210.973897452423</v>
+        <v>43231.23764525335</v>
       </c>
       <c r="I398">
         <f t="shared" si="53"/>
@@ -24520,7 +24529,7 @@
     <row r="399" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H399" s="18">
         <f t="shared" ref="H399:H462" ca="1" si="58">H398+$G$2/86400</f>
-        <v>43210.977369674642</v>
+        <v>43231.241117475569</v>
       </c>
       <c r="I399">
         <f t="shared" ref="I399:I462" si="59">ROUND(I398+B$2/3600*$G$2,0)</f>
@@ -24570,7 +24579,7 @@
     <row r="400" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H400" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43210.980841896861</v>
+        <v>43231.244589697788</v>
       </c>
       <c r="I400">
         <f t="shared" si="59"/>
@@ -24620,7 +24629,7 @@
     <row r="401" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H401" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43210.984314119079</v>
+        <v>43231.248061920007</v>
       </c>
       <c r="I401">
         <f t="shared" si="59"/>
@@ -24670,7 +24679,7 @@
     <row r="402" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H402" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43210.987786341298</v>
+        <v>43231.251534142226</v>
       </c>
       <c r="I402">
         <f t="shared" si="59"/>
@@ -24720,7 +24729,7 @@
     <row r="403" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H403" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43210.991258563517</v>
+        <v>43231.255006364445</v>
       </c>
       <c r="I403">
         <f t="shared" si="59"/>
@@ -24770,7 +24779,7 @@
     <row r="404" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H404" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43210.994730785736</v>
+        <v>43231.258478586664</v>
       </c>
       <c r="I404">
         <f t="shared" si="59"/>
@@ -24820,7 +24829,7 @@
     <row r="405" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H405" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43210.998203007955</v>
+        <v>43231.261950808883</v>
       </c>
       <c r="I405">
         <f t="shared" si="59"/>
@@ -24870,7 +24879,7 @@
     <row r="406" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H406" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.001675230174</v>
+        <v>43231.265423031102</v>
       </c>
       <c r="I406">
         <f t="shared" si="59"/>
@@ -24920,7 +24929,7 @@
     <row r="407" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H407" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.005147452393</v>
+        <v>43231.268895253321</v>
       </c>
       <c r="I407">
         <f t="shared" si="59"/>
@@ -24970,7 +24979,7 @@
     <row r="408" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H408" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.008619674612</v>
+        <v>43231.27236747554</v>
       </c>
       <c r="I408">
         <f t="shared" si="59"/>
@@ -25020,7 +25029,7 @@
     <row r="409" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H409" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.012091896831</v>
+        <v>43231.275839697759</v>
       </c>
       <c r="I409">
         <f t="shared" si="59"/>
@@ -25070,7 +25079,7 @@
     <row r="410" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H410" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.01556411905</v>
+        <v>43231.279311919978</v>
       </c>
       <c r="I410">
         <f t="shared" si="59"/>
@@ -25120,7 +25129,7 @@
     <row r="411" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H411" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.019036341269</v>
+        <v>43231.282784142197</v>
       </c>
       <c r="I411">
         <f t="shared" si="59"/>
@@ -25170,7 +25179,7 @@
     <row r="412" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H412" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.022508563488</v>
+        <v>43231.286256364416</v>
       </c>
       <c r="I412">
         <f t="shared" si="59"/>
@@ -25220,7 +25229,7 @@
     <row r="413" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H413" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.025980785707</v>
+        <v>43231.289728586635</v>
       </c>
       <c r="I413">
         <f t="shared" si="59"/>
@@ -25270,7 +25279,7 @@
     <row r="414" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H414" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.029453007926</v>
+        <v>43231.293200808854</v>
       </c>
       <c r="I414">
         <f t="shared" si="59"/>
@@ -25320,7 +25329,7 @@
     <row r="415" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H415" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.032925230145</v>
+        <v>43231.296673031073</v>
       </c>
       <c r="I415">
         <f t="shared" si="59"/>
@@ -25370,7 +25379,7 @@
     <row r="416" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H416" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.036397452364</v>
+        <v>43231.300145253292</v>
       </c>
       <c r="I416">
         <f t="shared" si="59"/>
@@ -25420,7 +25429,7 @@
     <row r="417" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H417" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.039869674583</v>
+        <v>43231.303617475511</v>
       </c>
       <c r="I417">
         <f t="shared" si="59"/>
@@ -25470,7 +25479,7 @@
     <row r="418" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H418" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.043341896802</v>
+        <v>43231.30708969773</v>
       </c>
       <c r="I418">
         <f t="shared" si="59"/>
@@ -25520,7 +25529,7 @@
     <row r="419" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H419" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.046814119021</v>
+        <v>43231.310561919949</v>
       </c>
       <c r="I419">
         <f t="shared" si="59"/>
@@ -25570,7 +25579,7 @@
     <row r="420" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H420" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.05028634124</v>
+        <v>43231.314034142168</v>
       </c>
       <c r="I420">
         <f t="shared" si="59"/>
@@ -25620,7 +25629,7 @@
     <row r="421" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H421" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.053758563459</v>
+        <v>43231.317506364387</v>
       </c>
       <c r="I421">
         <f t="shared" si="59"/>
@@ -25670,7 +25679,7 @@
     <row r="422" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H422" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.057230785678</v>
+        <v>43231.320978586606</v>
       </c>
       <c r="I422">
         <f t="shared" si="59"/>
@@ -25720,7 +25729,7 @@
     <row r="423" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H423" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.060703007897</v>
+        <v>43231.324450808825</v>
       </c>
       <c r="I423">
         <f t="shared" si="59"/>
@@ -25770,7 +25779,7 @@
     <row r="424" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H424" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.064175230116</v>
+        <v>43231.327923031044</v>
       </c>
       <c r="I424">
         <f t="shared" si="59"/>
@@ -25820,7 +25829,7 @@
     <row r="425" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H425" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.067647452335</v>
+        <v>43231.331395253263</v>
       </c>
       <c r="I425">
         <f t="shared" si="59"/>
@@ -25870,7 +25879,7 @@
     <row r="426" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H426" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.071119674554</v>
+        <v>43231.334867475482</v>
       </c>
       <c r="I426">
         <f t="shared" si="59"/>
@@ -25920,7 +25929,7 @@
     <row r="427" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H427" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.074591896773</v>
+        <v>43231.338339697701</v>
       </c>
       <c r="I427">
         <f t="shared" si="59"/>
@@ -25970,7 +25979,7 @@
     <row r="428" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H428" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.078064118992</v>
+        <v>43231.34181191992</v>
       </c>
       <c r="I428">
         <f t="shared" si="59"/>
@@ -26020,7 +26029,7 @@
     <row r="429" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H429" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.081536341211</v>
+        <v>43231.345284142139</v>
       </c>
       <c r="I429">
         <f t="shared" si="59"/>
@@ -26070,7 +26079,7 @@
     <row r="430" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H430" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.08500856343</v>
+        <v>43231.348756364358</v>
       </c>
       <c r="I430">
         <f t="shared" si="59"/>
@@ -26120,7 +26129,7 @@
     <row r="431" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H431" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.088480785649</v>
+        <v>43231.352228586577</v>
       </c>
       <c r="I431">
         <f t="shared" si="59"/>
@@ -26170,7 +26179,7 @@
     <row r="432" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H432" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.091953007868</v>
+        <v>43231.355700808796</v>
       </c>
       <c r="I432">
         <f t="shared" si="59"/>
@@ -26220,7 +26229,7 @@
     <row r="433" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H433" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.095425230087</v>
+        <v>43231.359173031015</v>
       </c>
       <c r="I433">
         <f t="shared" si="59"/>
@@ -26270,7 +26279,7 @@
     <row r="434" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H434" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.098897452306</v>
+        <v>43231.362645253233</v>
       </c>
       <c r="I434">
         <f t="shared" si="59"/>
@@ -26320,7 +26329,7 @@
     <row r="435" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H435" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.102369674525</v>
+        <v>43231.366117475452</v>
       </c>
       <c r="I435">
         <f t="shared" si="59"/>
@@ -26370,7 +26379,7 @@
     <row r="436" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H436" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.105841896744</v>
+        <v>43231.369589697671</v>
       </c>
       <c r="I436">
         <f t="shared" si="59"/>
@@ -26420,7 +26429,7 @@
     <row r="437" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H437" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.109314118963</v>
+        <v>43231.37306191989</v>
       </c>
       <c r="I437">
         <f t="shared" si="59"/>
@@ -26470,7 +26479,7 @@
     <row r="438" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H438" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.112786341182</v>
+        <v>43231.376534142109</v>
       </c>
       <c r="I438">
         <f t="shared" si="59"/>
@@ -26520,7 +26529,7 @@
     <row r="439" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H439" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.116258563401</v>
+        <v>43231.380006364328</v>
       </c>
       <c r="I439">
         <f t="shared" si="59"/>
@@ -26570,7 +26579,7 @@
     <row r="440" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H440" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.11973078562</v>
+        <v>43231.383478586547</v>
       </c>
       <c r="I440">
         <f t="shared" si="59"/>
@@ -26620,7 +26629,7 @@
     <row r="441" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H441" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.123203007839</v>
+        <v>43231.386950808766</v>
       </c>
       <c r="I441">
         <f t="shared" si="59"/>
@@ -26670,7 +26679,7 @@
     <row r="442" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H442" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.126675230058</v>
+        <v>43231.390423030985</v>
       </c>
       <c r="I442">
         <f t="shared" si="59"/>
@@ -26720,7 +26729,7 @@
     <row r="443" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H443" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.130147452277</v>
+        <v>43231.393895253204</v>
       </c>
       <c r="I443">
         <f t="shared" si="59"/>
@@ -26770,7 +26779,7 @@
     <row r="444" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H444" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.133619674496</v>
+        <v>43231.397367475423</v>
       </c>
       <c r="I444">
         <f t="shared" si="59"/>
@@ -26820,7 +26829,7 @@
     <row r="445" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H445" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.137091896715</v>
+        <v>43231.400839697642</v>
       </c>
       <c r="I445">
         <f t="shared" si="59"/>
@@ -26870,7 +26879,7 @@
     <row r="446" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H446" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.140564118934</v>
+        <v>43231.404311919861</v>
       </c>
       <c r="I446">
         <f t="shared" si="59"/>
@@ -26920,7 +26929,7 @@
     <row r="447" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H447" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.144036341153</v>
+        <v>43231.40778414208</v>
       </c>
       <c r="I447">
         <f t="shared" si="59"/>
@@ -26970,7 +26979,7 @@
     <row r="448" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H448" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.147508563372</v>
+        <v>43231.411256364299</v>
       </c>
       <c r="I448">
         <f t="shared" si="59"/>
@@ -27020,7 +27029,7 @@
     <row r="449" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H449" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.150980785591</v>
+        <v>43231.414728586518</v>
       </c>
       <c r="I449">
         <f t="shared" si="59"/>
@@ -27070,7 +27079,7 @@
     <row r="450" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H450" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.15445300781</v>
+        <v>43231.418200808737</v>
       </c>
       <c r="I450">
         <f t="shared" si="59"/>
@@ -27120,7 +27129,7 @@
     <row r="451" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H451" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.157925230029</v>
+        <v>43231.421673030956</v>
       </c>
       <c r="I451">
         <f t="shared" si="59"/>
@@ -27170,7 +27179,7 @@
     <row r="452" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H452" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.161397452248</v>
+        <v>43231.425145253175</v>
       </c>
       <c r="I452">
         <f t="shared" si="59"/>
@@ -27220,7 +27229,7 @@
     <row r="453" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H453" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.164869674467</v>
+        <v>43231.428617475394</v>
       </c>
       <c r="I453">
         <f t="shared" si="59"/>
@@ -27270,7 +27279,7 @@
     <row r="454" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H454" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.168341896686</v>
+        <v>43231.432089697613</v>
       </c>
       <c r="I454">
         <f t="shared" si="59"/>
@@ -27320,7 +27329,7 @@
     <row r="455" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H455" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.171814118905</v>
+        <v>43231.435561919832</v>
       </c>
       <c r="I455">
         <f t="shared" si="59"/>
@@ -27370,7 +27379,7 @@
     <row r="456" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H456" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.175286341124</v>
+        <v>43231.439034142051</v>
       </c>
       <c r="I456">
         <f t="shared" si="59"/>
@@ -27420,7 +27429,7 @@
     <row r="457" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H457" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.178758563343</v>
+        <v>43231.44250636427</v>
       </c>
       <c r="I457">
         <f t="shared" si="59"/>
@@ -27470,7 +27479,7 @@
     <row r="458" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H458" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.182230785562</v>
+        <v>43231.445978586489</v>
       </c>
       <c r="I458">
         <f t="shared" si="59"/>
@@ -27520,7 +27529,7 @@
     <row r="459" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H459" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.185703007781</v>
+        <v>43231.449450808708</v>
       </c>
       <c r="I459">
         <f t="shared" si="59"/>
@@ -27570,7 +27579,7 @@
     <row r="460" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H460" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.18917523</v>
+        <v>43231.452923030927</v>
       </c>
       <c r="I460">
         <f t="shared" si="59"/>
@@ -27620,7 +27629,7 @@
     <row r="461" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H461" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.192647452219</v>
+        <v>43231.456395253146</v>
       </c>
       <c r="I461">
         <f t="shared" si="59"/>
@@ -27670,7 +27679,7 @@
     <row r="462" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H462" s="18">
         <f t="shared" ca="1" si="58"/>
-        <v>43211.196119674438</v>
+        <v>43231.459867475365</v>
       </c>
       <c r="I462">
         <f t="shared" si="59"/>
@@ -27720,7 +27729,7 @@
     <row r="463" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H463" s="18">
         <f t="shared" ref="H463:H526" ca="1" si="64">H462+$G$2/86400</f>
-        <v>43211.199591896657</v>
+        <v>43231.463339697584</v>
       </c>
       <c r="I463">
         <f t="shared" ref="I463:I526" si="65">ROUND(I462+B$2/3600*$G$2,0)</f>
@@ -27770,7 +27779,7 @@
     <row r="464" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H464" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.203064118876</v>
+        <v>43231.466811919803</v>
       </c>
       <c r="I464">
         <f t="shared" si="65"/>
@@ -27820,7 +27829,7 @@
     <row r="465" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H465" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.206536341095</v>
+        <v>43231.470284142022</v>
       </c>
       <c r="I465">
         <f t="shared" si="65"/>
@@ -27870,7 +27879,7 @@
     <row r="466" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H466" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.210008563314</v>
+        <v>43231.473756364241</v>
       </c>
       <c r="I466">
         <f t="shared" si="65"/>
@@ -27920,7 +27929,7 @@
     <row r="467" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H467" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.213480785533</v>
+        <v>43231.47722858646</v>
       </c>
       <c r="I467">
         <f t="shared" si="65"/>
@@ -27970,7 +27979,7 @@
     <row r="468" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H468" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.216953007752</v>
+        <v>43231.480700808679</v>
       </c>
       <c r="I468">
         <f t="shared" si="65"/>
@@ -28020,7 +28029,7 @@
     <row r="469" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H469" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.220425229971</v>
+        <v>43231.484173030898</v>
       </c>
       <c r="I469">
         <f t="shared" si="65"/>
@@ -28070,7 +28079,7 @@
     <row r="470" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H470" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.22389745219</v>
+        <v>43231.487645253117</v>
       </c>
       <c r="I470">
         <f t="shared" si="65"/>
@@ -28120,7 +28129,7 @@
     <row r="471" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H471" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.227369674409</v>
+        <v>43231.491117475336</v>
       </c>
       <c r="I471">
         <f t="shared" si="65"/>
@@ -28170,7 +28179,7 @@
     <row r="472" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H472" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.230841896628</v>
+        <v>43231.494589697555</v>
       </c>
       <c r="I472">
         <f t="shared" si="65"/>
@@ -28220,7 +28229,7 @@
     <row r="473" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H473" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.234314118847</v>
+        <v>43231.498061919774</v>
       </c>
       <c r="I473">
         <f t="shared" si="65"/>
@@ -28270,7 +28279,7 @@
     <row r="474" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H474" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.237786341066</v>
+        <v>43231.501534141993</v>
       </c>
       <c r="I474">
         <f t="shared" si="65"/>
@@ -28320,7 +28329,7 @@
     <row r="475" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H475" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.241258563285</v>
+        <v>43231.505006364212</v>
       </c>
       <c r="I475">
         <f t="shared" si="65"/>
@@ -28370,7 +28379,7 @@
     <row r="476" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H476" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.244730785504</v>
+        <v>43231.508478586431</v>
       </c>
       <c r="I476">
         <f t="shared" si="65"/>
@@ -28420,7 +28429,7 @@
     <row r="477" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H477" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.248203007723</v>
+        <v>43231.51195080865</v>
       </c>
       <c r="I477">
         <f t="shared" si="65"/>
@@ -28470,7 +28479,7 @@
     <row r="478" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H478" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.251675229942</v>
+        <v>43231.515423030869</v>
       </c>
       <c r="I478">
         <f t="shared" si="65"/>
@@ -28520,7 +28529,7 @@
     <row r="479" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H479" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.255147452161</v>
+        <v>43231.518895253088</v>
       </c>
       <c r="I479">
         <f t="shared" si="65"/>
@@ -28570,7 +28579,7 @@
     <row r="480" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H480" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.25861967438</v>
+        <v>43231.522367475307</v>
       </c>
       <c r="I480">
         <f t="shared" si="65"/>
@@ -28620,7 +28629,7 @@
     <row r="481" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H481" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.262091896599</v>
+        <v>43231.525839697526</v>
       </c>
       <c r="I481">
         <f t="shared" si="65"/>
@@ -28670,7 +28679,7 @@
     <row r="482" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H482" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.265564118818</v>
+        <v>43231.529311919745</v>
       </c>
       <c r="I482">
         <f t="shared" si="65"/>
@@ -28720,7 +28729,7 @@
     <row r="483" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H483" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.269036341037</v>
+        <v>43231.532784141964</v>
       </c>
       <c r="I483">
         <f t="shared" si="65"/>
@@ -28770,7 +28779,7 @@
     <row r="484" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H484" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.272508563256</v>
+        <v>43231.536256364183</v>
       </c>
       <c r="I484">
         <f t="shared" si="65"/>
@@ -28820,7 +28829,7 @@
     <row r="485" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H485" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.275980785475</v>
+        <v>43231.539728586402</v>
       </c>
       <c r="I485">
         <f t="shared" si="65"/>
@@ -28870,7 +28879,7 @@
     <row r="486" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H486" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.279453007694</v>
+        <v>43231.543200808621</v>
       </c>
       <c r="I486">
         <f t="shared" si="65"/>
@@ -28920,7 +28929,7 @@
     <row r="487" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H487" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.282925229913</v>
+        <v>43231.54667303084</v>
       </c>
       <c r="I487">
         <f t="shared" si="65"/>
@@ -28970,7 +28979,7 @@
     <row r="488" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H488" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.286397452131</v>
+        <v>43231.550145253059</v>
       </c>
       <c r="I488">
         <f t="shared" si="65"/>
@@ -29020,7 +29029,7 @@
     <row r="489" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H489" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.28986967435</v>
+        <v>43231.553617475278</v>
       </c>
       <c r="I489">
         <f t="shared" si="65"/>
@@ -29070,7 +29079,7 @@
     <row r="490" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H490" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.293341896569</v>
+        <v>43231.557089697497</v>
       </c>
       <c r="I490">
         <f t="shared" si="65"/>
@@ -29120,7 +29129,7 @@
     <row r="491" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H491" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.296814118788</v>
+        <v>43231.560561919716</v>
       </c>
       <c r="I491">
         <f t="shared" si="65"/>
@@ -29170,7 +29179,7 @@
     <row r="492" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H492" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.300286341007</v>
+        <v>43231.564034141935</v>
       </c>
       <c r="I492">
         <f t="shared" si="65"/>
@@ -29220,7 +29229,7 @@
     <row r="493" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H493" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.303758563226</v>
+        <v>43231.567506364154</v>
       </c>
       <c r="I493">
         <f t="shared" si="65"/>
@@ -29270,7 +29279,7 @@
     <row r="494" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H494" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.307230785445</v>
+        <v>43231.570978586373</v>
       </c>
       <c r="I494">
         <f t="shared" si="65"/>
@@ -29320,7 +29329,7 @@
     <row r="495" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H495" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.310703007664</v>
+        <v>43231.574450808592</v>
       </c>
       <c r="I495">
         <f t="shared" si="65"/>
@@ -29370,7 +29379,7 @@
     <row r="496" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H496" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.314175229883</v>
+        <v>43231.577923030811</v>
       </c>
       <c r="I496">
         <f t="shared" si="65"/>
@@ -29420,7 +29429,7 @@
     <row r="497" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H497" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.317647452102</v>
+        <v>43231.58139525303</v>
       </c>
       <c r="I497">
         <f t="shared" si="65"/>
@@ -29470,7 +29479,7 @@
     <row r="498" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H498" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.321119674321</v>
+        <v>43231.584867475249</v>
       </c>
       <c r="I498">
         <f t="shared" si="65"/>
@@ -29520,7 +29529,7 @@
     <row r="499" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H499" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.32459189654</v>
+        <v>43231.588339697468</v>
       </c>
       <c r="I499">
         <f t="shared" si="65"/>
@@ -29570,7 +29579,7 @@
     <row r="500" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H500" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.328064118759</v>
+        <v>43231.591811919687</v>
       </c>
       <c r="I500">
         <f t="shared" si="65"/>
@@ -29620,7 +29629,7 @@
     <row r="501" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H501" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.331536340978</v>
+        <v>43231.595284141906</v>
       </c>
       <c r="I501">
         <f t="shared" si="65"/>
@@ -29670,7 +29679,7 @@
     <row r="502" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H502" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.335008563197</v>
+        <v>43231.598756364125</v>
       </c>
       <c r="I502">
         <f t="shared" si="65"/>
@@ -29720,7 +29729,7 @@
     <row r="503" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H503" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.338480785416</v>
+        <v>43231.602228586344</v>
       </c>
       <c r="I503">
         <f t="shared" si="65"/>
@@ -29770,7 +29779,7 @@
     <row r="504" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H504" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.341953007635</v>
+        <v>43231.605700808563</v>
       </c>
       <c r="I504">
         <f t="shared" si="65"/>
@@ -29820,7 +29829,7 @@
     <row r="505" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H505" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.345425229854</v>
+        <v>43231.609173030782</v>
       </c>
       <c r="I505">
         <f t="shared" si="65"/>
@@ -29870,7 +29879,7 @@
     <row r="506" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H506" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.348897452073</v>
+        <v>43231.612645253001</v>
       </c>
       <c r="I506">
         <f t="shared" si="65"/>
@@ -29920,7 +29929,7 @@
     <row r="507" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H507" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.352369674292</v>
+        <v>43231.61611747522</v>
       </c>
       <c r="I507">
         <f t="shared" si="65"/>
@@ -29970,7 +29979,7 @@
     <row r="508" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H508" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.355841896511</v>
+        <v>43231.619589697439</v>
       </c>
       <c r="I508">
         <f t="shared" si="65"/>
@@ -30020,7 +30029,7 @@
     <row r="509" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H509" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.35931411873</v>
+        <v>43231.623061919658</v>
       </c>
       <c r="I509">
         <f t="shared" si="65"/>
@@ -30070,7 +30079,7 @@
     <row r="510" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H510" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.362786340949</v>
+        <v>43231.626534141877</v>
       </c>
       <c r="I510">
         <f t="shared" si="65"/>
@@ -30120,7 +30129,7 @@
     <row r="511" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H511" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.366258563168</v>
+        <v>43231.630006364096</v>
       </c>
       <c r="I511">
         <f t="shared" si="65"/>
@@ -30170,7 +30179,7 @@
     <row r="512" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H512" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.369730785387</v>
+        <v>43231.633478586315</v>
       </c>
       <c r="I512">
         <f t="shared" si="65"/>
@@ -30220,7 +30229,7 @@
     <row r="513" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H513" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.373203007606</v>
+        <v>43231.636950808534</v>
       </c>
       <c r="I513">
         <f t="shared" si="65"/>
@@ -30270,7 +30279,7 @@
     <row r="514" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H514" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.376675229825</v>
+        <v>43231.640423030753</v>
       </c>
       <c r="I514">
         <f t="shared" si="65"/>
@@ -30320,7 +30329,7 @@
     <row r="515" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H515" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.380147452044</v>
+        <v>43231.643895252972</v>
       </c>
       <c r="I515">
         <f t="shared" si="65"/>
@@ -30370,7 +30379,7 @@
     <row r="516" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H516" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.383619674263</v>
+        <v>43231.647367475191</v>
       </c>
       <c r="I516">
         <f t="shared" si="65"/>
@@ -30420,7 +30429,7 @@
     <row r="517" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H517" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.387091896482</v>
+        <v>43231.65083969741</v>
       </c>
       <c r="I517">
         <f t="shared" si="65"/>
@@ -30470,7 +30479,7 @@
     <row r="518" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H518" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.390564118701</v>
+        <v>43231.654311919629</v>
       </c>
       <c r="I518">
         <f t="shared" si="65"/>
@@ -30520,7 +30529,7 @@
     <row r="519" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H519" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.39403634092</v>
+        <v>43231.657784141848</v>
       </c>
       <c r="I519">
         <f t="shared" si="65"/>
@@ -30570,7 +30579,7 @@
     <row r="520" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H520" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.397508563139</v>
+        <v>43231.661256364067</v>
       </c>
       <c r="I520">
         <f t="shared" si="65"/>
@@ -30620,7 +30629,7 @@
     <row r="521" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H521" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.400980785358</v>
+        <v>43231.664728586285</v>
       </c>
       <c r="I521">
         <f t="shared" si="65"/>
@@ -30670,7 +30679,7 @@
     <row r="522" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H522" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.404453007577</v>
+        <v>43231.668200808504</v>
       </c>
       <c r="I522">
         <f t="shared" si="65"/>
@@ -30720,7 +30729,7 @@
     <row r="523" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H523" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.407925229796</v>
+        <v>43231.671673030723</v>
       </c>
       <c r="I523">
         <f t="shared" si="65"/>
@@ -30770,7 +30779,7 @@
     <row r="524" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H524" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.411397452015</v>
+        <v>43231.675145252942</v>
       </c>
       <c r="I524">
         <f t="shared" si="65"/>
@@ -30820,7 +30829,7 @@
     <row r="525" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H525" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.414869674234</v>
+        <v>43231.678617475161</v>
       </c>
       <c r="I525">
         <f t="shared" si="65"/>
@@ -30870,7 +30879,7 @@
     <row r="526" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H526" s="18">
         <f t="shared" ca="1" si="64"/>
-        <v>43211.418341896453</v>
+        <v>43231.68208969738</v>
       </c>
       <c r="I526">
         <f t="shared" si="65"/>
@@ -30920,7 +30929,7 @@
     <row r="527" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H527" s="18">
         <f t="shared" ref="H527:H590" ca="1" si="70">H526+$G$2/86400</f>
-        <v>43211.421814118672</v>
+        <v>43231.685561919599</v>
       </c>
       <c r="I527">
         <f t="shared" ref="I527:I590" si="71">ROUND(I526+B$2/3600*$G$2,0)</f>
@@ -30970,7 +30979,7 @@
     <row r="528" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H528" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.425286340891</v>
+        <v>43231.689034141818</v>
       </c>
       <c r="I528">
         <f t="shared" si="71"/>
@@ -31020,7 +31029,7 @@
     <row r="529" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H529" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.42875856311</v>
+        <v>43231.692506364037</v>
       </c>
       <c r="I529">
         <f t="shared" si="71"/>
@@ -31070,7 +31079,7 @@
     <row r="530" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H530" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.432230785329</v>
+        <v>43231.695978586256</v>
       </c>
       <c r="I530">
         <f t="shared" si="71"/>
@@ -31120,7 +31129,7 @@
     <row r="531" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H531" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.435703007548</v>
+        <v>43231.699450808475</v>
       </c>
       <c r="I531">
         <f t="shared" si="71"/>
@@ -31170,7 +31179,7 @@
     <row r="532" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H532" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.439175229767</v>
+        <v>43231.702923030694</v>
       </c>
       <c r="I532">
         <f t="shared" si="71"/>
@@ -31220,7 +31229,7 @@
     <row r="533" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H533" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.442647451986</v>
+        <v>43231.706395252913</v>
       </c>
       <c r="I533">
         <f t="shared" si="71"/>
@@ -31270,7 +31279,7 @@
     <row r="534" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H534" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.446119674205</v>
+        <v>43231.709867475132</v>
       </c>
       <c r="I534">
         <f t="shared" si="71"/>
@@ -31320,7 +31329,7 @@
     <row r="535" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H535" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.449591896424</v>
+        <v>43231.713339697351</v>
       </c>
       <c r="I535">
         <f t="shared" si="71"/>
@@ -31370,7 +31379,7 @@
     <row r="536" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H536" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.453064118643</v>
+        <v>43231.71681191957</v>
       </c>
       <c r="I536">
         <f t="shared" si="71"/>
@@ -31420,7 +31429,7 @@
     <row r="537" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H537" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.456536340862</v>
+        <v>43231.720284141789</v>
       </c>
       <c r="I537">
         <f t="shared" si="71"/>
@@ -31470,7 +31479,7 @@
     <row r="538" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H538" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.460008563081</v>
+        <v>43231.723756364008</v>
       </c>
       <c r="I538">
         <f t="shared" si="71"/>
@@ -31520,7 +31529,7 @@
     <row r="539" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H539" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.4634807853</v>
+        <v>43231.727228586227</v>
       </c>
       <c r="I539">
         <f t="shared" si="71"/>
@@ -31570,7 +31579,7 @@
     <row r="540" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H540" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.466953007519</v>
+        <v>43231.730700808446</v>
       </c>
       <c r="I540">
         <f t="shared" si="71"/>
@@ -31620,7 +31629,7 @@
     <row r="541" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H541" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.470425229738</v>
+        <v>43231.734173030665</v>
       </c>
       <c r="I541">
         <f t="shared" si="71"/>
@@ -31670,7 +31679,7 @@
     <row r="542" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H542" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.473897451957</v>
+        <v>43231.737645252884</v>
       </c>
       <c r="I542">
         <f t="shared" si="71"/>
@@ -31720,7 +31729,7 @@
     <row r="543" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H543" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.477369674176</v>
+        <v>43231.741117475103</v>
       </c>
       <c r="I543">
         <f t="shared" si="71"/>
@@ -31770,7 +31779,7 @@
     <row r="544" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H544" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.480841896395</v>
+        <v>43231.744589697322</v>
       </c>
       <c r="I544">
         <f t="shared" si="71"/>
@@ -31820,7 +31829,7 @@
     <row r="545" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H545" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.484314118614</v>
+        <v>43231.748061919541</v>
       </c>
       <c r="I545">
         <f t="shared" si="71"/>
@@ -31870,7 +31879,7 @@
     <row r="546" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H546" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.487786340833</v>
+        <v>43231.75153414176</v>
       </c>
       <c r="I546">
         <f t="shared" si="71"/>
@@ -31920,7 +31929,7 @@
     <row r="547" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H547" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.491258563052</v>
+        <v>43231.755006363979</v>
       </c>
       <c r="I547">
         <f t="shared" si="71"/>
@@ -31970,7 +31979,7 @@
     <row r="548" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H548" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.494730785271</v>
+        <v>43231.758478586198</v>
       </c>
       <c r="I548">
         <f t="shared" si="71"/>
@@ -32020,7 +32029,7 @@
     <row r="549" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H549" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.49820300749</v>
+        <v>43231.761950808417</v>
       </c>
       <c r="I549">
         <f t="shared" si="71"/>
@@ -32070,7 +32079,7 @@
     <row r="550" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H550" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.501675229709</v>
+        <v>43231.765423030636</v>
       </c>
       <c r="I550">
         <f t="shared" si="71"/>
@@ -32120,7 +32129,7 @@
     <row r="551" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H551" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.505147451928</v>
+        <v>43231.768895252855</v>
       </c>
       <c r="I551">
         <f t="shared" si="71"/>
@@ -32170,7 +32179,7 @@
     <row r="552" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H552" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.508619674147</v>
+        <v>43231.772367475074</v>
       </c>
       <c r="I552">
         <f t="shared" si="71"/>
@@ -32220,7 +32229,7 @@
     <row r="553" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H553" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.512091896366</v>
+        <v>43231.775839697293</v>
       </c>
       <c r="I553">
         <f t="shared" si="71"/>
@@ -32270,7 +32279,7 @@
     <row r="554" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H554" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.515564118585</v>
+        <v>43231.779311919512</v>
       </c>
       <c r="I554">
         <f t="shared" si="71"/>
@@ -32320,7 +32329,7 @@
     <row r="555" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H555" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.519036340804</v>
+        <v>43231.782784141731</v>
       </c>
       <c r="I555">
         <f t="shared" si="71"/>
@@ -32370,7 +32379,7 @@
     <row r="556" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H556" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.522508563023</v>
+        <v>43231.78625636395</v>
       </c>
       <c r="I556">
         <f t="shared" si="71"/>
@@ -32420,7 +32429,7 @@
     <row r="557" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H557" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.525980785242</v>
+        <v>43231.789728586169</v>
       </c>
       <c r="I557">
         <f t="shared" si="71"/>
@@ -32470,7 +32479,7 @@
     <row r="558" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H558" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.529453007461</v>
+        <v>43231.793200808388</v>
       </c>
       <c r="I558">
         <f t="shared" si="71"/>
@@ -32520,7 +32529,7 @@
     <row r="559" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H559" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.53292522968</v>
+        <v>43231.796673030607</v>
       </c>
       <c r="I559">
         <f t="shared" si="71"/>
@@ -32570,7 +32579,7 @@
     <row r="560" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H560" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.536397451899</v>
+        <v>43231.800145252826</v>
       </c>
       <c r="I560">
         <f t="shared" si="71"/>
@@ -32620,7 +32629,7 @@
     <row r="561" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H561" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.539869674118</v>
+        <v>43231.803617475045</v>
       </c>
       <c r="I561">
         <f t="shared" si="71"/>
@@ -32670,7 +32679,7 @@
     <row r="562" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H562" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.543341896337</v>
+        <v>43231.807089697264</v>
       </c>
       <c r="I562">
         <f t="shared" si="71"/>
@@ -32720,7 +32729,7 @@
     <row r="563" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H563" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.546814118556</v>
+        <v>43231.810561919483</v>
       </c>
       <c r="I563">
         <f t="shared" si="71"/>
@@ -32770,7 +32779,7 @@
     <row r="564" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H564" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.550286340775</v>
+        <v>43231.814034141702</v>
       </c>
       <c r="I564">
         <f t="shared" si="71"/>
@@ -32820,7 +32829,7 @@
     <row r="565" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H565" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.553758562994</v>
+        <v>43231.817506363921</v>
       </c>
       <c r="I565">
         <f t="shared" si="71"/>
@@ -32870,7 +32879,7 @@
     <row r="566" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H566" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.557230785213</v>
+        <v>43231.82097858614</v>
       </c>
       <c r="I566">
         <f t="shared" si="71"/>
@@ -32920,7 +32929,7 @@
     <row r="567" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H567" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.560703007432</v>
+        <v>43231.824450808359</v>
       </c>
       <c r="I567">
         <f t="shared" si="71"/>
@@ -32970,7 +32979,7 @@
     <row r="568" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H568" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.564175229651</v>
+        <v>43231.827923030578</v>
       </c>
       <c r="I568">
         <f t="shared" si="71"/>
@@ -33020,7 +33029,7 @@
     <row r="569" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H569" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.56764745187</v>
+        <v>43231.831395252797</v>
       </c>
       <c r="I569">
         <f t="shared" si="71"/>
@@ -33070,7 +33079,7 @@
     <row r="570" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H570" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.571119674089</v>
+        <v>43231.834867475016</v>
       </c>
       <c r="I570">
         <f t="shared" si="71"/>
@@ -33120,7 +33129,7 @@
     <row r="571" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H571" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.574591896308</v>
+        <v>43231.838339697235</v>
       </c>
       <c r="I571">
         <f t="shared" si="71"/>
@@ -33170,7 +33179,7 @@
     <row r="572" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H572" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.578064118527</v>
+        <v>43231.841811919454</v>
       </c>
       <c r="I572">
         <f t="shared" si="71"/>
@@ -33220,7 +33229,7 @@
     <row r="573" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H573" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.581536340746</v>
+        <v>43231.845284141673</v>
       </c>
       <c r="I573">
         <f t="shared" si="71"/>
@@ -33270,7 +33279,7 @@
     <row r="574" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H574" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.585008562965</v>
+        <v>43231.848756363892</v>
       </c>
       <c r="I574">
         <f t="shared" si="71"/>
@@ -33320,7 +33329,7 @@
     <row r="575" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H575" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.588480785183</v>
+        <v>43231.852228586111</v>
       </c>
       <c r="I575">
         <f t="shared" si="71"/>
@@ -33370,7 +33379,7 @@
     <row r="576" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H576" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.591953007402</v>
+        <v>43231.85570080833</v>
       </c>
       <c r="I576">
         <f t="shared" si="71"/>
@@ -33420,7 +33429,7 @@
     <row r="577" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H577" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.595425229621</v>
+        <v>43231.859173030549</v>
       </c>
       <c r="I577">
         <f t="shared" si="71"/>
@@ -33470,7 +33479,7 @@
     <row r="578" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H578" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.59889745184</v>
+        <v>43231.862645252768</v>
       </c>
       <c r="I578">
         <f t="shared" si="71"/>
@@ -33520,7 +33529,7 @@
     <row r="579" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H579" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.602369674059</v>
+        <v>43231.866117474987</v>
       </c>
       <c r="I579">
         <f t="shared" si="71"/>
@@ -33570,7 +33579,7 @@
     <row r="580" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H580" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.605841896278</v>
+        <v>43231.869589697206</v>
       </c>
       <c r="I580">
         <f t="shared" si="71"/>
@@ -33620,7 +33629,7 @@
     <row r="581" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H581" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.609314118497</v>
+        <v>43231.873061919425</v>
       </c>
       <c r="I581">
         <f t="shared" si="71"/>
@@ -33670,7 +33679,7 @@
     <row r="582" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H582" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.612786340716</v>
+        <v>43231.876534141644</v>
       </c>
       <c r="I582">
         <f t="shared" si="71"/>
@@ -33720,7 +33729,7 @@
     <row r="583" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H583" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.616258562935</v>
+        <v>43231.880006363863</v>
       </c>
       <c r="I583">
         <f t="shared" si="71"/>
@@ -33770,7 +33779,7 @@
     <row r="584" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H584" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.619730785154</v>
+        <v>43231.883478586082</v>
       </c>
       <c r="I584">
         <f t="shared" si="71"/>
@@ -33820,7 +33829,7 @@
     <row r="585" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H585" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.623203007373</v>
+        <v>43231.886950808301</v>
       </c>
       <c r="I585">
         <f t="shared" si="71"/>
@@ -33870,7 +33879,7 @@
     <row r="586" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H586" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.626675229592</v>
+        <v>43231.89042303052</v>
       </c>
       <c r="I586">
         <f t="shared" si="71"/>
@@ -33920,7 +33929,7 @@
     <row r="587" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H587" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.630147451811</v>
+        <v>43231.893895252739</v>
       </c>
       <c r="I587">
         <f t="shared" si="71"/>
@@ -33970,7 +33979,7 @@
     <row r="588" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H588" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.63361967403</v>
+        <v>43231.897367474958</v>
       </c>
       <c r="I588">
         <f t="shared" si="71"/>
@@ -34020,7 +34029,7 @@
     <row r="589" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H589" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.637091896249</v>
+        <v>43231.900839697177</v>
       </c>
       <c r="I589">
         <f t="shared" si="71"/>
@@ -34070,7 +34079,7 @@
     <row r="590" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H590" s="18">
         <f t="shared" ca="1" si="70"/>
-        <v>43211.640564118468</v>
+        <v>43231.904311919396</v>
       </c>
       <c r="I590">
         <f t="shared" si="71"/>
@@ -34120,7 +34129,7 @@
     <row r="591" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H591" s="18">
         <f t="shared" ref="H591:H654" ca="1" si="76">H590+$G$2/86400</f>
-        <v>43211.644036340687</v>
+        <v>43231.907784141615</v>
       </c>
       <c r="I591">
         <f t="shared" ref="I591:I654" si="77">ROUND(I590+B$2/3600*$G$2,0)</f>
@@ -34170,7 +34179,7 @@
     <row r="592" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H592" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.647508562906</v>
+        <v>43231.911256363834</v>
       </c>
       <c r="I592">
         <f t="shared" si="77"/>
@@ -34220,7 +34229,7 @@
     <row r="593" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H593" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.650980785125</v>
+        <v>43231.914728586053</v>
       </c>
       <c r="I593">
         <f t="shared" si="77"/>
@@ -34270,7 +34279,7 @@
     <row r="594" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H594" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.654453007344</v>
+        <v>43231.918200808272</v>
       </c>
       <c r="I594">
         <f t="shared" si="77"/>
@@ -34320,7 +34329,7 @@
     <row r="595" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H595" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.657925229563</v>
+        <v>43231.921673030491</v>
       </c>
       <c r="I595">
         <f t="shared" si="77"/>
@@ -34370,7 +34379,7 @@
     <row r="596" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H596" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.661397451782</v>
+        <v>43231.92514525271</v>
       </c>
       <c r="I596">
         <f t="shared" si="77"/>
@@ -34420,7 +34429,7 @@
     <row r="597" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H597" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.664869674001</v>
+        <v>43231.928617474929</v>
       </c>
       <c r="I597">
         <f t="shared" si="77"/>
@@ -34470,7 +34479,7 @@
     <row r="598" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H598" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.66834189622</v>
+        <v>43231.932089697148</v>
       </c>
       <c r="I598">
         <f t="shared" si="77"/>
@@ -34520,7 +34529,7 @@
     <row r="599" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H599" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.671814118439</v>
+        <v>43231.935561919367</v>
       </c>
       <c r="I599">
         <f t="shared" si="77"/>
@@ -34570,7 +34579,7 @@
     <row r="600" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H600" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.675286340658</v>
+        <v>43231.939034141586</v>
       </c>
       <c r="I600">
         <f t="shared" si="77"/>
@@ -34620,7 +34629,7 @@
     <row r="601" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H601" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.678758562877</v>
+        <v>43231.942506363805</v>
       </c>
       <c r="I601">
         <f t="shared" si="77"/>
@@ -34670,7 +34679,7 @@
     <row r="602" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H602" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.682230785096</v>
+        <v>43231.945978586024</v>
       </c>
       <c r="I602">
         <f t="shared" si="77"/>
@@ -34720,7 +34729,7 @@
     <row r="603" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H603" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.685703007315</v>
+        <v>43231.949450808243</v>
       </c>
       <c r="I603">
         <f t="shared" si="77"/>
@@ -34770,7 +34779,7 @@
     <row r="604" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H604" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.689175229534</v>
+        <v>43231.952923030462</v>
       </c>
       <c r="I604">
         <f t="shared" si="77"/>
@@ -34820,7 +34829,7 @@
     <row r="605" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H605" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.692647451753</v>
+        <v>43231.956395252681</v>
       </c>
       <c r="I605">
         <f t="shared" si="77"/>
@@ -34870,7 +34879,7 @@
     <row r="606" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H606" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.696119673972</v>
+        <v>43231.9598674749</v>
       </c>
       <c r="I606">
         <f t="shared" si="77"/>
@@ -34920,7 +34929,7 @@
     <row r="607" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H607" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.699591896191</v>
+        <v>43231.963339697118</v>
       </c>
       <c r="I607">
         <f t="shared" si="77"/>
@@ -34970,7 +34979,7 @@
     <row r="608" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H608" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.70306411841</v>
+        <v>43231.966811919337</v>
       </c>
       <c r="I608">
         <f t="shared" si="77"/>
@@ -35020,7 +35029,7 @@
     <row r="609" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H609" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.706536340629</v>
+        <v>43231.970284141556</v>
       </c>
       <c r="I609">
         <f t="shared" si="77"/>
@@ -35070,7 +35079,7 @@
     <row r="610" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H610" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.710008562848</v>
+        <v>43231.973756363775</v>
       </c>
       <c r="I610">
         <f t="shared" si="77"/>
@@ -35120,7 +35129,7 @@
     <row r="611" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H611" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.713480785067</v>
+        <v>43231.977228585994</v>
       </c>
       <c r="I611">
         <f t="shared" si="77"/>
@@ -35170,7 +35179,7 @@
     <row r="612" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H612" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.716953007286</v>
+        <v>43231.980700808213</v>
       </c>
       <c r="I612">
         <f t="shared" si="77"/>
@@ -35220,7 +35229,7 @@
     <row r="613" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H613" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.720425229505</v>
+        <v>43231.984173030432</v>
       </c>
       <c r="I613">
         <f t="shared" si="77"/>
@@ -35270,7 +35279,7 @@
     <row r="614" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H614" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.723897451724</v>
+        <v>43231.987645252651</v>
       </c>
       <c r="I614">
         <f t="shared" si="77"/>
@@ -35320,7 +35329,7 @@
     <row r="615" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H615" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.727369673943</v>
+        <v>43231.99111747487</v>
       </c>
       <c r="I615">
         <f t="shared" si="77"/>
@@ -35370,7 +35379,7 @@
     <row r="616" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H616" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.730841896162</v>
+        <v>43231.994589697089</v>
       </c>
       <c r="I616">
         <f t="shared" si="77"/>
@@ -35420,7 +35429,7 @@
     <row r="617" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H617" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.734314118381</v>
+        <v>43231.998061919308</v>
       </c>
       <c r="I617">
         <f t="shared" si="77"/>
@@ -35470,7 +35479,7 @@
     <row r="618" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H618" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.7377863406</v>
+        <v>43232.001534141527</v>
       </c>
       <c r="I618">
         <f t="shared" si="77"/>
@@ -35520,7 +35529,7 @@
     <row r="619" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H619" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.741258562819</v>
+        <v>43232.005006363746</v>
       </c>
       <c r="I619">
         <f t="shared" si="77"/>
@@ -35570,7 +35579,7 @@
     <row r="620" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H620" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.744730785038</v>
+        <v>43232.008478585965</v>
       </c>
       <c r="I620">
         <f t="shared" si="77"/>
@@ -35620,7 +35629,7 @@
     <row r="621" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H621" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.748203007257</v>
+        <v>43232.011950808184</v>
       </c>
       <c r="I621">
         <f t="shared" si="77"/>
@@ -35670,7 +35679,7 @@
     <row r="622" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H622" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.751675229476</v>
+        <v>43232.015423030403</v>
       </c>
       <c r="I622">
         <f t="shared" si="77"/>
@@ -35720,7 +35729,7 @@
     <row r="623" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H623" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.755147451695</v>
+        <v>43232.018895252622</v>
       </c>
       <c r="I623">
         <f t="shared" si="77"/>
@@ -35770,7 +35779,7 @@
     <row r="624" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H624" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.758619673914</v>
+        <v>43232.022367474841</v>
       </c>
       <c r="I624">
         <f t="shared" si="77"/>
@@ -35820,7 +35829,7 @@
     <row r="625" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H625" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.762091896133</v>
+        <v>43232.02583969706</v>
       </c>
       <c r="I625">
         <f t="shared" si="77"/>
@@ -35870,7 +35879,7 @@
     <row r="626" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H626" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.765564118352</v>
+        <v>43232.029311919279</v>
       </c>
       <c r="I626">
         <f t="shared" si="77"/>
@@ -35920,7 +35929,7 @@
     <row r="627" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H627" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.769036340571</v>
+        <v>43232.032784141498</v>
       </c>
       <c r="I627">
         <f t="shared" si="77"/>
@@ -35970,7 +35979,7 @@
     <row r="628" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H628" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.77250856279</v>
+        <v>43232.036256363717</v>
       </c>
       <c r="I628">
         <f t="shared" si="77"/>
@@ -36020,7 +36029,7 @@
     <row r="629" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H629" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.775980785009</v>
+        <v>43232.039728585936</v>
       </c>
       <c r="I629">
         <f t="shared" si="77"/>
@@ -36070,7 +36079,7 @@
     <row r="630" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H630" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.779453007228</v>
+        <v>43232.043200808155</v>
       </c>
       <c r="I630">
         <f t="shared" si="77"/>
@@ -36120,7 +36129,7 @@
     <row r="631" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H631" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.782925229447</v>
+        <v>43232.046673030374</v>
       </c>
       <c r="I631">
         <f t="shared" si="77"/>
@@ -36170,7 +36179,7 @@
     <row r="632" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H632" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.786397451666</v>
+        <v>43232.050145252593</v>
       </c>
       <c r="I632">
         <f t="shared" si="77"/>
@@ -36220,7 +36229,7 @@
     <row r="633" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H633" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.789869673885</v>
+        <v>43232.053617474812</v>
       </c>
       <c r="I633">
         <f t="shared" si="77"/>
@@ -36270,7 +36279,7 @@
     <row r="634" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H634" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.793341896104</v>
+        <v>43232.057089697031</v>
       </c>
       <c r="I634">
         <f t="shared" si="77"/>
@@ -36320,7 +36329,7 @@
     <row r="635" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H635" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.796814118323</v>
+        <v>43232.06056191925</v>
       </c>
       <c r="I635">
         <f t="shared" si="77"/>
@@ -36370,7 +36379,7 @@
     <row r="636" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H636" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.800286340542</v>
+        <v>43232.064034141469</v>
       </c>
       <c r="I636">
         <f t="shared" si="77"/>
@@ -36420,7 +36429,7 @@
     <row r="637" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H637" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.803758562761</v>
+        <v>43232.067506363688</v>
       </c>
       <c r="I637">
         <f t="shared" si="77"/>
@@ -36470,7 +36479,7 @@
     <row r="638" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H638" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.80723078498</v>
+        <v>43232.070978585907</v>
       </c>
       <c r="I638">
         <f t="shared" si="77"/>
@@ -36520,7 +36529,7 @@
     <row r="639" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H639" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.810703007199</v>
+        <v>43232.074450808126</v>
       </c>
       <c r="I639">
         <f t="shared" si="77"/>
@@ -36570,7 +36579,7 @@
     <row r="640" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H640" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.814175229418</v>
+        <v>43232.077923030345</v>
       </c>
       <c r="I640">
         <f t="shared" si="77"/>
@@ -36620,7 +36629,7 @@
     <row r="641" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H641" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.817647451637</v>
+        <v>43232.081395252564</v>
       </c>
       <c r="I641">
         <f t="shared" si="77"/>
@@ -36670,7 +36679,7 @@
     <row r="642" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H642" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.821119673856</v>
+        <v>43232.084867474783</v>
       </c>
       <c r="I642">
         <f t="shared" si="77"/>
@@ -36720,7 +36729,7 @@
     <row r="643" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H643" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.824591896075</v>
+        <v>43232.088339697002</v>
       </c>
       <c r="I643">
         <f t="shared" si="77"/>
@@ -36770,7 +36779,7 @@
     <row r="644" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H644" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.828064118294</v>
+        <v>43232.091811919221</v>
       </c>
       <c r="I644">
         <f t="shared" si="77"/>
@@ -36820,7 +36829,7 @@
     <row r="645" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H645" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.831536340513</v>
+        <v>43232.09528414144</v>
       </c>
       <c r="I645">
         <f t="shared" si="77"/>
@@ -36870,7 +36879,7 @@
     <row r="646" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H646" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.835008562732</v>
+        <v>43232.098756363659</v>
       </c>
       <c r="I646">
         <f t="shared" si="77"/>
@@ -36920,7 +36929,7 @@
     <row r="647" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H647" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.838480784951</v>
+        <v>43232.102228585878</v>
       </c>
       <c r="I647">
         <f t="shared" si="77"/>
@@ -36970,7 +36979,7 @@
     <row r="648" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H648" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.84195300717</v>
+        <v>43232.105700808097</v>
       </c>
       <c r="I648">
         <f t="shared" si="77"/>
@@ -37020,7 +37029,7 @@
     <row r="649" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H649" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.845425229389</v>
+        <v>43232.109173030316</v>
       </c>
       <c r="I649">
         <f t="shared" si="77"/>
@@ -37070,7 +37079,7 @@
     <row r="650" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H650" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.848897451608</v>
+        <v>43232.112645252535</v>
       </c>
       <c r="I650">
         <f t="shared" si="77"/>
@@ -37120,7 +37129,7 @@
     <row r="651" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H651" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.852369673827</v>
+        <v>43232.116117474754</v>
       </c>
       <c r="I651">
         <f t="shared" si="77"/>
@@ -37170,7 +37179,7 @@
     <row r="652" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H652" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.855841896046</v>
+        <v>43232.119589696973</v>
       </c>
       <c r="I652">
         <f t="shared" si="77"/>
@@ -37220,7 +37229,7 @@
     <row r="653" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H653" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.859314118265</v>
+        <v>43232.123061919192</v>
       </c>
       <c r="I653">
         <f t="shared" si="77"/>
@@ -37270,7 +37279,7 @@
     <row r="654" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H654" s="18">
         <f t="shared" ca="1" si="76"/>
-        <v>43211.862786340484</v>
+        <v>43232.126534141411</v>
       </c>
       <c r="I654">
         <f t="shared" si="77"/>
@@ -37320,7 +37329,7 @@
     <row r="655" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H655" s="18">
         <f t="shared" ref="H655:H673" ca="1" si="82">H654+$G$2/86400</f>
-        <v>43211.866258562703</v>
+        <v>43232.13000636363</v>
       </c>
       <c r="I655">
         <f t="shared" ref="I655:I673" si="83">ROUND(I654+B$2/3600*$G$2,0)</f>
@@ -37370,7 +37379,7 @@
     <row r="656" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H656" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.869730784922</v>
+        <v>43232.133478585849</v>
       </c>
       <c r="I656">
         <f t="shared" si="83"/>
@@ -37420,7 +37429,7 @@
     <row r="657" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H657" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.873203007141</v>
+        <v>43232.136950808068</v>
       </c>
       <c r="I657">
         <f t="shared" si="83"/>
@@ -37470,7 +37479,7 @@
     <row r="658" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H658" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.87667522936</v>
+        <v>43232.140423030287</v>
       </c>
       <c r="I658">
         <f t="shared" si="83"/>
@@ -37520,7 +37529,7 @@
     <row r="659" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H659" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.880147451579</v>
+        <v>43232.143895252506</v>
       </c>
       <c r="I659">
         <f t="shared" si="83"/>
@@ -37570,7 +37579,7 @@
     <row r="660" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H660" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.883619673798</v>
+        <v>43232.147367474725</v>
       </c>
       <c r="I660">
         <f t="shared" si="83"/>
@@ -37620,7 +37629,7 @@
     <row r="661" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H661" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.887091896016</v>
+        <v>43232.150839696944</v>
       </c>
       <c r="I661">
         <f t="shared" si="83"/>
@@ -37670,7 +37679,7 @@
     <row r="662" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H662" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.890564118235</v>
+        <v>43232.154311919163</v>
       </c>
       <c r="I662">
         <f t="shared" si="83"/>
@@ -37720,7 +37729,7 @@
     <row r="663" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H663" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.894036340454</v>
+        <v>43232.157784141382</v>
       </c>
       <c r="I663">
         <f t="shared" si="83"/>
@@ -37770,7 +37779,7 @@
     <row r="664" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H664" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.897508562673</v>
+        <v>43232.161256363601</v>
       </c>
       <c r="I664">
         <f t="shared" si="83"/>
@@ -37820,7 +37829,7 @@
     <row r="665" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H665" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.900980784892</v>
+        <v>43232.16472858582</v>
       </c>
       <c r="I665">
         <f t="shared" si="83"/>
@@ -37870,7 +37879,7 @@
     <row r="666" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H666" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.904453007111</v>
+        <v>43232.168200808039</v>
       </c>
       <c r="I666">
         <f t="shared" si="83"/>
@@ -37920,7 +37929,7 @@
     <row r="667" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H667" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.90792522933</v>
+        <v>43232.171673030258</v>
       </c>
       <c r="I667">
         <f t="shared" si="83"/>
@@ -37970,7 +37979,7 @@
     <row r="668" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H668" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.911397451549</v>
+        <v>43232.175145252477</v>
       </c>
       <c r="I668">
         <f t="shared" si="83"/>
@@ -38020,7 +38029,7 @@
     <row r="669" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H669" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.914869673768</v>
+        <v>43232.178617474696</v>
       </c>
       <c r="I669">
         <f t="shared" si="83"/>
@@ -38070,7 +38079,7 @@
     <row r="670" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H670" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.918341895987</v>
+        <v>43232.182089696915</v>
       </c>
       <c r="I670">
         <f t="shared" si="83"/>
@@ -38120,7 +38129,7 @@
     <row r="671" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H671" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.921814118206</v>
+        <v>43232.185561919134</v>
       </c>
       <c r="I671">
         <f t="shared" si="83"/>
@@ -38170,7 +38179,7 @@
     <row r="672" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H672" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.925286340425</v>
+        <v>43232.189034141353</v>
       </c>
       <c r="I672">
         <f t="shared" si="83"/>
@@ -38216,7 +38225,7 @@
     <row r="673" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H673" s="18">
         <f t="shared" ca="1" si="82"/>
-        <v>43211.928758562644</v>
+        <v>43232.192506363572</v>
       </c>
       <c r="I673">
         <f t="shared" si="83"/>
